--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/secundairekenmerktype/secundairekenmerktype.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/secundairekenmerktype/secundairekenmerktype.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,2440 +413,3448 @@
         <v>dc\.identifier</v>
       </c>
       <c r="D1" t="str">
+        <v>definition</v>
+      </c>
+      <c r="E1" t="str">
         <v>inScheme</v>
       </c>
-      <c r="E1" t="str">
-        <v>member</v>
-      </c>
       <c r="F1" t="str">
+        <v>notation</v>
+      </c>
+      <c r="G1" t="str">
+        <v>note</v>
+      </c>
+      <c r="H1" t="str">
         <v>prefLabel</v>
       </c>
-      <c r="G1" t="str">
-        <v>notation</v>
-      </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>topConceptOf</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
+        <v>closeMatch</v>
+      </c>
+      <c r="K1" t="str">
+        <v>mappingRelation</v>
+      </c>
+      <c r="L1" t="str">
+        <v>semanticRelation</v>
+      </c>
+      <c r="M1" t="str">
         <v>hasTopConcept</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/collection/secundairekenmerktype/secundairekenmerktype</v>
+        <v>concepts:sf</v>
       </c>
       <c r="B2" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Collection</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C2" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.collection.secundairekenmerktype.secundairekenmerktype</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.sf</v>
       </c>
       <c r="D2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Sideriet (ijzercarbonaat) in de vorm van een sferoïdale massa.</v>
       </c>
       <c r="E2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/0|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/10|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/11|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/12|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/13|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/14|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/15|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/16|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/17|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/18|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/19|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/1|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/20|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/21|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/22|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/23|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/24|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/25|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/26|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/27|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/28|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/29|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/2|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/30|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/31|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/32|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/33|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/34|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/35|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/36|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/37|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/38|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/3|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/40|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/41|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/42|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/43|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/44|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/45|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/46|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/4|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/51|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/52|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/53|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/54|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/55|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/56|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/57|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/58|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/59|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/5|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/60|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/61|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/62|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/63|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/64|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/65|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/66|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/67|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/68|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/69|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/6|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/70|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/71|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/72|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/73|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/74|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/75|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/76|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/77|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/78|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/79|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/7|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/80|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/81|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/82|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/83|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/84|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/85|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/86|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/8|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/9</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F2" t="str">
-        <v>Collectie van secundairekenmerktype.</v>
+        <v>SF</v>
       </c>
       <c r="G2" t="str">
-        <v>null</v>
+        <v>Sideriet (ijzercarbonaat) in de vorm van een sferoïdale massa.</v>
       </c>
       <c r="H2" t="str">
-        <v>null</v>
+        <v>sferosideriet</v>
       </c>
       <c r="I2" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J2" t="str">
+        <v>null</v>
+      </c>
+      <c r="K2" t="str">
+        <v>null</v>
+      </c>
+      <c r="L2" t="str">
+        <v>null</v>
+      </c>
+      <c r="M2" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/0</v>
+        <v>concepts:sh</v>
       </c>
       <c r="B3" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C3" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.0</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.sh</v>
       </c>
       <c r="D3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval dat silikaat bevat.</v>
       </c>
       <c r="E3" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F3" t="str">
-        <v>onbepaald</v>
+        <v>SH</v>
       </c>
       <c r="G3" t="str">
-        <v>0</v>
+        <v>Interval dat silikaat bevat.</v>
       </c>
       <c r="H3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>silikaathoudend</v>
       </c>
       <c r="I3" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J3" t="str">
+        <v>null</v>
+      </c>
+      <c r="K3" t="str">
+        <v>null</v>
+      </c>
+      <c r="L3" t="str">
+        <v>null</v>
+      </c>
+      <c r="M3" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/1</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
       </c>
       <c r="B4" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C4" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.1</v>
+        <v>null</v>
       </c>
       <c r="D4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="E4" t="str">
         <v>null</v>
       </c>
       <c r="F4" t="str">
-        <v>bitumineus / kolig</v>
+        <v>null</v>
       </c>
       <c r="G4" t="str">
-        <v>1</v>
+        <v>null</v>
       </c>
       <c r="H4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="I4" t="str">
+        <v>null</v>
+      </c>
+      <c r="J4" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pd|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ph|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pk</v>
+      </c>
+      <c r="K4" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pd|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ph|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pk</v>
+      </c>
+      <c r="L4" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pd|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ph|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pk</v>
+      </c>
+      <c r="M4" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/10</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bitumen</v>
       </c>
       <c r="B5" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C5" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.10</v>
+        <v>null</v>
       </c>
       <c r="D5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="E5" t="str">
         <v>null</v>
       </c>
       <c r="F5" t="str">
-        <v>koolstrepen</v>
+        <v>null</v>
       </c>
       <c r="G5" t="str">
-        <v>10</v>
+        <v>null</v>
       </c>
       <c r="H5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="I5" t="str">
+        <v>null</v>
+      </c>
+      <c r="J5" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bi</v>
+      </c>
+      <c r="K5" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bi</v>
+      </c>
+      <c r="L5" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bi</v>
+      </c>
+      <c r="M5" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/11</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment</v>
       </c>
       <c r="B6" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.11</v>
+        <v>null</v>
       </c>
       <c r="D6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="E6" t="str">
         <v>null</v>
       </c>
       <c r="F6" t="str">
-        <v>ingekoolde stammen</v>
+        <v>null</v>
       </c>
       <c r="G6" t="str">
-        <v>11</v>
+        <v>null</v>
       </c>
       <c r="H6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="I6" t="str">
+        <v>null</v>
+      </c>
+      <c r="J6" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kl</v>
+      </c>
+      <c r="K6" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kl</v>
+      </c>
+      <c r="L6" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kl</v>
+      </c>
+      <c r="M6" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/12</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.12</v>
+        <v>null</v>
       </c>
       <c r="D7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="E7" t="str">
         <v>null</v>
       </c>
       <c r="F7" t="str">
-        <v>koolklasten</v>
+        <v>null</v>
       </c>
       <c r="G7" t="str">
-        <v>12</v>
+        <v>null</v>
       </c>
       <c r="H7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="I7" t="str">
+        <v>null</v>
+      </c>
+      <c r="J7" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ks</v>
+      </c>
+      <c r="K7" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ks</v>
+      </c>
+      <c r="L7" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ks</v>
+      </c>
+      <c r="M7" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/13</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.13</v>
+        <v>null</v>
       </c>
       <c r="D8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="E8" t="str">
         <v>null</v>
       </c>
       <c r="F8" t="str">
-        <v>andere klasten</v>
+        <v>null</v>
       </c>
       <c r="G8" t="str">
-        <v>13</v>
+        <v>null</v>
       </c>
       <c r="H8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="I8" t="str">
+        <v>null</v>
+      </c>
+      <c r="J8" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kw</v>
+      </c>
+      <c r="K8" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kw</v>
+      </c>
+      <c r="L8" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kw</v>
+      </c>
+      <c r="M8" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/14</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ak</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.14</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ak</v>
       </c>
       <c r="D9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Klasten van diverse oorsprong.</v>
       </c>
       <c r="E9" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F9" t="str">
-        <v>carbonaathoudend</v>
+        <v>AK</v>
       </c>
       <c r="G9" t="str">
-        <v>14</v>
+        <v>Klasten van diverse oorsprong.</v>
       </c>
       <c r="H9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>andere klasten</v>
       </c>
       <c r="I9" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J9" t="str">
+        <v>null</v>
+      </c>
+      <c r="K9" t="str">
+        <v>null</v>
+      </c>
+      <c r="L9" t="str">
+        <v>null</v>
+      </c>
+      <c r="M9" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/15</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/an</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.15</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.an</v>
       </c>
       <c r="D10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Knol of lens bestaande uit anhydriet (gedehydrateerd calciumsulfaat).</v>
       </c>
       <c r="E10" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F10" t="str">
-        <v>poreus</v>
+        <v>AN</v>
       </c>
       <c r="G10" t="str">
-        <v>15</v>
+        <v>Knol of lens bestaande uit anhydriet (gedehydrateerd calciumsulfaat).</v>
       </c>
       <c r="H10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>anhydrietknollen / lenzen</v>
       </c>
       <c r="I10" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J10" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/anhydrite</v>
+      </c>
+      <c r="K10" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/anhydrite</v>
+      </c>
+      <c r="L10" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/anhydrite</v>
+      </c>
+      <c r="M10" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/16</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bg</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.16</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.bg</v>
       </c>
       <c r="D11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Een interval aan de basis van een geologisch pakket dat grind bevat.</v>
       </c>
       <c r="E11" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F11" t="str">
-        <v>paleosol / gesloten bedding</v>
+        <v>BG</v>
       </c>
       <c r="G11" t="str">
-        <v>16</v>
+        <v>Een interval aan de basis van een geologisch pakket dat grind bevat.</v>
       </c>
       <c r="H11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>basisgrind</v>
       </c>
       <c r="I11" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J11" t="str">
+        <v>null</v>
+      </c>
+      <c r="K11" t="str">
+        <v>null</v>
+      </c>
+      <c r="L11" t="str">
+        <v>null</v>
+      </c>
+      <c r="M11" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/17</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bi</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.17</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.bi</v>
       </c>
       <c r="D12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Een interval met verhoogd gehalte organisch materiaal.</v>
       </c>
       <c r="E12" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F12" t="str">
-        <v>doorworteld / organische resten / houtresten</v>
+        <v>BI</v>
       </c>
       <c r="G12" t="str">
-        <v>17</v>
+        <v>Een interval met verhoogd gehalte organisch materiaal.</v>
       </c>
       <c r="H12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>bitumineus / kolig</v>
       </c>
       <c r="I12" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J12" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bitumen</v>
+      </c>
+      <c r="K12" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bitumen</v>
+      </c>
+      <c r="L12" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bitumen</v>
+      </c>
+      <c r="M12" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/18</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/br</v>
       </c>
       <c r="B13" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.18</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.br</v>
       </c>
       <c r="D13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval dat makkelijk afbrokkelt of versplintert in kleinere deeltjes.</v>
       </c>
       <c r="E13" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F13" t="str">
-        <v>valse muur (vloer)</v>
+        <v>BR</v>
       </c>
       <c r="G13" t="str">
-        <v>18</v>
+        <v>Interval dat makkelijk afbrokkelt of versplintert in kleinere deeltjes.</v>
       </c>
       <c r="H13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>brokkelig / splinterig</v>
       </c>
       <c r="I13" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J13" t="str">
+        <v>null</v>
+      </c>
+      <c r="K13" t="str">
+        <v>null</v>
+      </c>
+      <c r="L13" t="str">
+        <v>null</v>
+      </c>
+      <c r="M13" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/19</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ca</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C14" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.19</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ca</v>
       </c>
       <c r="D14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Sediment of gesteente dat carbonaat bevat.</v>
       </c>
       <c r="E14" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F14" t="str">
-        <v>escaille</v>
+        <v>CA</v>
       </c>
       <c r="G14" t="str">
-        <v>19</v>
+        <v>Sediment of gesteente dat carbonaat bevat.</v>
       </c>
       <c r="H14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>carbonaathoudend</v>
       </c>
       <c r="I14" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J14" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryMaterial</v>
+      </c>
+      <c r="K14" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryMaterial</v>
+      </c>
+      <c r="L14" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryMaterial</v>
+      </c>
+      <c r="M14" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/2</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/cc</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.2</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.cc</v>
       </c>
       <c r="D15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Concretie bestaande uit carbonaatmineralen.</v>
       </c>
       <c r="E15" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F15" t="str">
-        <v>siderietband</v>
+        <v>CC</v>
       </c>
       <c r="G15" t="str">
-        <v>2</v>
+        <v>Concretie bestaande uit carbonaatmineralen.</v>
       </c>
       <c r="H15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>carbonaatconcretie</v>
       </c>
       <c r="I15" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J15" t="str">
+        <v>null</v>
+      </c>
+      <c r="K15" t="str">
+        <v>null</v>
+      </c>
+      <c r="L15" t="str">
+        <v>null</v>
+      </c>
+      <c r="M15" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/20</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ch</v>
       </c>
       <c r="B16" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C16" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.20</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ch</v>
       </c>
       <c r="D16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Knol of laag bestaande uit chalcopyriet (koperijzersulfide).</v>
       </c>
       <c r="E16" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F16" t="str">
-        <v>gepyritiseerd</v>
+        <v>CH</v>
       </c>
       <c r="G16" t="str">
-        <v>20</v>
+        <v>Knol of laag bestaande uit chalcopyriet (koperijzersulfide).</v>
       </c>
       <c r="H16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>chalcopyrietknollen / -lagen</v>
       </c>
       <c r="I16" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J16" t="str">
+        <v>null</v>
+      </c>
+      <c r="K16" t="str">
+        <v>null</v>
+      </c>
+      <c r="L16" t="str">
+        <v>null</v>
+      </c>
+      <c r="M16" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/21</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/co</v>
       </c>
       <c r="B17" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C17" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.21</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.co</v>
       </c>
       <c r="D17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Een brok versteend plantaardig materiaal meestal met een ronde vorm die voorkomt in steenkool lagen.</v>
       </c>
       <c r="E17" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F17" t="str">
-        <v>vals dak</v>
+        <v>CO</v>
       </c>
       <c r="G17" t="str">
-        <v>21</v>
+        <v>Een brok versteend plantaardig materiaal meestal met een ronde vorm die voorkomt in steenkool lagen.</v>
       </c>
       <c r="H17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>'coal ball'</v>
       </c>
       <c r="I17" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J17" t="str">
+        <v>null</v>
+      </c>
+      <c r="K17" t="str">
+        <v>null</v>
+      </c>
+      <c r="L17" t="str">
+        <v>null</v>
+      </c>
+      <c r="M17" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/22</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/do</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C18" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.22</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.do</v>
       </c>
       <c r="D18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval met harde dolomietbanken.</v>
       </c>
       <c r="E18" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F18" t="str">
-        <v>verweerd</v>
+        <v>DO</v>
       </c>
       <c r="G18" t="str">
-        <v>22</v>
+        <v>Interval met harde dolomietbanken.</v>
       </c>
       <c r="H18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>dolomietbanken</v>
       </c>
       <c r="I18" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J18" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/dolomite</v>
+      </c>
+      <c r="K18" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/dolomite</v>
+      </c>
+      <c r="L18" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/dolomite</v>
+      </c>
+      <c r="M18" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/23</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/es</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C19" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.23</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.es</v>
       </c>
       <c r="D19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Kleisteen met een schilferige textuur.</v>
       </c>
       <c r="E19" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F19" t="str">
-        <v>veldspaatrijk</v>
+        <v>ES</v>
       </c>
       <c r="G19" t="str">
-        <v>23</v>
+        <v>Kleisteen met een schilferige textuur.</v>
       </c>
       <c r="H19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>escaille</v>
       </c>
       <c r="I19" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J19" t="str">
+        <v>null</v>
+      </c>
+      <c r="K19" t="str">
+        <v>null</v>
+      </c>
+      <c r="L19" t="str">
+        <v>null</v>
+      </c>
+      <c r="M19" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/24</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/fi</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C20" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.24</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.fi</v>
       </c>
       <c r="D20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval met fijnkorrelig sediment (bv. klei, silt, fijn zand).</v>
       </c>
       <c r="E20" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F20" t="str">
-        <v>kwartsietisch</v>
+        <v>FI</v>
       </c>
       <c r="G20" t="str">
-        <v>24</v>
+        <v>Interval met fijnkorrelig sediment (bv. klei, silt, fijn zand).</v>
       </c>
       <c r="H20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>fijnkorrelig</v>
       </c>
       <c r="I20" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J20" t="str">
+        <v>null</v>
+      </c>
+      <c r="K20" t="str">
+        <v>null</v>
+      </c>
+      <c r="L20" t="str">
+        <v>null</v>
+      </c>
+      <c r="M20" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/25</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/fo</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C21" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.25</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.fo</v>
       </c>
       <c r="D21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Knol bestaande uit fosfaat.</v>
       </c>
       <c r="E21" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F21" t="str">
-        <v>korrelig</v>
+        <v>FO</v>
       </c>
       <c r="G21" t="str">
-        <v>25</v>
+        <v>Knol bestaande uit fosfaat.</v>
       </c>
       <c r="H21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>fosfaatknol</v>
       </c>
       <c r="I21" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J21" t="str">
+        <v>null</v>
+      </c>
+      <c r="K21" t="str">
+        <v>null</v>
+      </c>
+      <c r="L21" t="str">
+        <v>null</v>
+      </c>
+      <c r="M21" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/26</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gi</v>
       </c>
       <c r="B22" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C22" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.26</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.gi</v>
       </c>
       <c r="D22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Knol of lens bestaande uit gips (calciumsulfaat).</v>
       </c>
       <c r="E22" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F22" t="str">
-        <v>venig / veenhoudend</v>
+        <v>GI</v>
       </c>
       <c r="G22" t="str">
-        <v>26</v>
+        <v>Knol of lens bestaande uit gips (calciumsulfaat).</v>
       </c>
       <c r="H22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>gipsknollen / lenzen</v>
       </c>
       <c r="I22" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J22" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/gypsum</v>
+      </c>
+      <c r="K22" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/gypsum</v>
+      </c>
+      <c r="L22" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/gypsum</v>
+      </c>
+      <c r="M22" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/27</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gk</v>
       </c>
       <c r="B23" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C23" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.27</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.gk</v>
       </c>
       <c r="D23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval met grofkorrelig sediment (bv. grof zand, grind).</v>
       </c>
       <c r="E23" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F23" t="str">
-        <v>steenbrokjes</v>
+        <v>GK</v>
       </c>
       <c r="G23" t="str">
-        <v>27</v>
+        <v>Interval met grofkorrelig sediment (bv. grof zand, grind).</v>
       </c>
       <c r="H23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>grofkorrelig</v>
       </c>
       <c r="I23" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J23" t="str">
+        <v>null</v>
+      </c>
+      <c r="K23" t="str">
+        <v>null</v>
+      </c>
+      <c r="L23" t="str">
+        <v>null</v>
+      </c>
+      <c r="M23" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/28</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gr</v>
       </c>
       <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C24" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.28</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.gr</v>
       </c>
       <c r="D24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval met grindbanken.</v>
       </c>
       <c r="E24" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F24" t="str">
-        <v>glauconiethoudend</v>
+        <v>GR</v>
       </c>
       <c r="G24" t="str">
-        <v>28</v>
+        <v>Interval met grindbanken.</v>
       </c>
       <c r="H24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>grindbanken</v>
       </c>
       <c r="I24" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J24" t="str">
+        <v>null</v>
+      </c>
+      <c r="K24" t="str">
+        <v>null</v>
+      </c>
+      <c r="L24" t="str">
+        <v>null</v>
+      </c>
+      <c r="M24" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/29</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/hb</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C25" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.29</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.hb</v>
       </c>
       <c r="D25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval met harde steenbanken.</v>
       </c>
       <c r="E25" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F25" t="str">
-        <v>kwartshoudend</v>
+        <v>HB</v>
       </c>
       <c r="G25" t="str">
-        <v>29</v>
+        <v>Interval met harde steenbanken.</v>
       </c>
       <c r="H25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>harde banken</v>
       </c>
       <c r="I25" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J25" t="str">
+        <v>null</v>
+      </c>
+      <c r="K25" t="str">
+        <v>null</v>
+      </c>
+      <c r="L25" t="str">
+        <v>null</v>
+      </c>
+      <c r="M25" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/3</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/is</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C26" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.3</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.is</v>
       </c>
       <c r="D26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Zwarte ingekoolde resten van boomstammen.</v>
       </c>
       <c r="E26" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F26" t="str">
-        <v>siderietknol / siderietlens</v>
+        <v>IS</v>
       </c>
       <c r="G26" t="str">
-        <v>3</v>
+        <v>Zwarte ingekoolde resten van boomstammen.</v>
       </c>
       <c r="H26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>ingekoolde stammen</v>
       </c>
       <c r="I26" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J26" t="str">
+        <v>null</v>
+      </c>
+      <c r="K26" t="str">
+        <v>null</v>
+      </c>
+      <c r="L26" t="str">
+        <v>null</v>
+      </c>
+      <c r="M26" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/30</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ka</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C27" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.30</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ka</v>
       </c>
       <c r="D27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Korrels opgebouwd uit concentrische lagen van kaoliniet.</v>
       </c>
       <c r="E27" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F27" t="str">
-        <v>vivianiethoudend</v>
+        <v>KA</v>
       </c>
       <c r="G27" t="str">
-        <v>30</v>
+        <v>Korrels opgebouwd uit concentrische lagen van kaoliniet.</v>
       </c>
       <c r="H27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>kaoliniet oölieten</v>
       </c>
       <c r="I27" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J27" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/kaolin</v>
+      </c>
+      <c r="K27" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/kaolin</v>
+      </c>
+      <c r="L27" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/kaolin</v>
+      </c>
+      <c r="M27" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/31</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kb</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C28" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.31</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kb</v>
       </c>
       <c r="D28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval met harde kalkrijke banken.</v>
       </c>
       <c r="E28" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F28" t="str">
-        <v>vuursteenhoudend</v>
+        <v>KB</v>
       </c>
       <c r="G28" t="str">
-        <v>31</v>
+        <v>Interval met harde kalkrijke banken.</v>
       </c>
       <c r="H28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>kalkrijke banken</v>
       </c>
       <c r="I28" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J28" t="str">
+        <v>null</v>
+      </c>
+      <c r="K28" t="str">
+        <v>null</v>
+      </c>
+      <c r="L28" t="str">
+        <v>null</v>
+      </c>
+      <c r="M28" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/32</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ke</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C29" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.32</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ke</v>
       </c>
       <c r="D29" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval met kleiige banken.</v>
       </c>
       <c r="E29" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F29" t="str">
-        <v>verkiezeld</v>
+        <v>KE</v>
       </c>
       <c r="G29" t="str">
-        <v>32</v>
+        <v>Interval met kleiige banken.</v>
       </c>
       <c r="H29" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>kleiige banken</v>
       </c>
       <c r="I29" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J29" t="str">
+        <v>null</v>
+      </c>
+      <c r="K29" t="str">
+        <v>null</v>
+      </c>
+      <c r="L29" t="str">
+        <v>null</v>
+      </c>
+      <c r="M29" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/33</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ki</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C30" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.33</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ki</v>
       </c>
       <c r="D30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval waarin mineralen een kristallijne structuur hebben.</v>
       </c>
       <c r="E30" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F30" t="str">
-        <v>ontkalkt</v>
+        <v>KI</v>
       </c>
       <c r="G30" t="str">
-        <v>33</v>
+        <v>Interval waarin mineralen een kristallijne structuur hebben.</v>
       </c>
       <c r="H30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>kristallijn</v>
       </c>
       <c r="I30" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J30" t="str">
+        <v>null</v>
+      </c>
+      <c r="K30" t="str">
+        <v>null</v>
+      </c>
+      <c r="L30" t="str">
+        <v>null</v>
+      </c>
+      <c r="M30" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/34</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kj</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C31" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.34</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kj</v>
       </c>
       <c r="D31" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Klast bestaande uit krijt.</v>
       </c>
       <c r="E31" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F31" t="str">
-        <v>brokkelig / splinterig</v>
+        <v>KJ</v>
       </c>
       <c r="G31" t="str">
-        <v>34</v>
+        <v>Klast bestaande uit krijt.</v>
       </c>
       <c r="H31" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>krijtklasten</v>
       </c>
       <c r="I31" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J31" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/chalk</v>
+      </c>
+      <c r="K31" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/chalk</v>
+      </c>
+      <c r="L31" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/chalk</v>
+      </c>
+      <c r="M31" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/35</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kk</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C32" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.35</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kk</v>
       </c>
       <c r="D32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Klast bestaande uit kleisteen.</v>
       </c>
       <c r="E32" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F32" t="str">
-        <v>carbonaatconcretie</v>
+        <v>KK</v>
       </c>
       <c r="G32" t="str">
-        <v>35</v>
+        <v>Klast bestaande uit kleisteen.</v>
       </c>
       <c r="H32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>kleisteenklasten</v>
       </c>
       <c r="I32" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J32" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
+      </c>
+      <c r="K32" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
+      </c>
+      <c r="L32" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
+      </c>
+      <c r="M32" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/36</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kl</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C33" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.36</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kl</v>
       </c>
       <c r="D33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Lenzen die hoofdzakelijk uit kalk bestaan.</v>
       </c>
       <c r="E33" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F33" t="str">
-        <v>fosfaatknol</v>
+        <v>KL</v>
       </c>
       <c r="G33" t="str">
-        <v>36</v>
+        <v>Lenzen die hoofdzakelijk uit kalk bestaan.</v>
       </c>
       <c r="H33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>kalklenzen / bankjes</v>
       </c>
       <c r="I33" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J33" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment</v>
+      </c>
+      <c r="K33" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment</v>
+      </c>
+      <c r="L33" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment</v>
+      </c>
+      <c r="M33" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/37</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ko</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C34" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.37</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ko</v>
       </c>
       <c r="D34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Klasten van bruinkool of steenkool.</v>
       </c>
       <c r="E34" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F34" t="str">
-        <v>pyrietknol / laag</v>
+        <v>KO</v>
       </c>
       <c r="G34" t="str">
-        <v>37</v>
+        <v>Klasten van bruinkool of steenkool.</v>
       </c>
       <c r="H34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>koolklasten</v>
       </c>
       <c r="I34" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J34" t="str">
+        <v>null</v>
+      </c>
+      <c r="K34" t="str">
+        <v>null</v>
+      </c>
+      <c r="L34" t="str">
+        <v>null</v>
+      </c>
+      <c r="M34" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/38</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kp</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C35" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.38</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kp</v>
       </c>
       <c r="D35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Zwarte strepen veroorzaakt door verkoold organisch materiaal.</v>
       </c>
       <c r="E35" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F35" t="str">
-        <v>anhydriet / gipshoudend</v>
+        <v>KP</v>
       </c>
       <c r="G35" t="str">
-        <v>38</v>
+        <v>Zwarte strepen veroorzaakt door verkoold organisch materiaal.</v>
       </c>
       <c r="H35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>koolstrepen</v>
       </c>
       <c r="I35" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J35" t="str">
+        <v>null</v>
+      </c>
+      <c r="K35" t="str">
+        <v>null</v>
+      </c>
+      <c r="L35" t="str">
+        <v>null</v>
+      </c>
+      <c r="M35" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/4</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kr</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C36" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.4</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kr</v>
       </c>
       <c r="D36" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Materiaal met een korrelige textuur.</v>
       </c>
       <c r="E36" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F36" t="str">
-        <v>tonstein</v>
+        <v>KR</v>
       </c>
       <c r="G36" t="str">
-        <v>4</v>
+        <v>Materiaal met een korrelige textuur.</v>
       </c>
       <c r="H36" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>korrelig</v>
       </c>
       <c r="I36" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J36" t="str">
+        <v>null</v>
+      </c>
+      <c r="K36" t="str">
+        <v>null</v>
+      </c>
+      <c r="L36" t="str">
+        <v>null</v>
+      </c>
+      <c r="M36" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/40</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ks</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C37" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.40</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ks</v>
       </c>
       <c r="D37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval met harde kalksteenbanken.</v>
       </c>
       <c r="E37" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F37" t="str">
-        <v>gipsknollen / lenzen</v>
+        <v>KS</v>
       </c>
       <c r="G37" t="str">
-        <v>40</v>
+        <v>Interval met harde kalksteenbanken.</v>
       </c>
       <c r="H37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>kalksteenbanken</v>
       </c>
       <c r="I37" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J37" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone</v>
+      </c>
+      <c r="K37" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone</v>
+      </c>
+      <c r="L37" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone</v>
+      </c>
+      <c r="M37" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/41</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kt</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C38" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.41</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kt</v>
       </c>
       <c r="D38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Lenzen of banken bestaande uit kleisteen.</v>
       </c>
       <c r="E38" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F38" t="str">
-        <v>psammitisch</v>
+        <v>KT</v>
       </c>
       <c r="G38" t="str">
-        <v>41</v>
+        <v>Lenzen of banken bestaande uit kleisteen.</v>
       </c>
       <c r="H38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>kleisteenlenzen / -banken</v>
       </c>
       <c r="I38" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J38" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
+      </c>
+      <c r="K38" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
+      </c>
+      <c r="L38" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
+      </c>
+      <c r="M38" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/42</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kw</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C39" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.42</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kw</v>
       </c>
       <c r="D39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval waarin het materiaal geheel of gedeeltelijk werd omgezet tot hard kwartsietgesteente, door metamorfe of diagenetische processen.</v>
       </c>
       <c r="E39" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F39" t="str">
-        <v>silikaathoudend</v>
+        <v>KW</v>
       </c>
       <c r="G39" t="str">
-        <v>42</v>
+        <v>Interval waarin het materiaal geheel of gedeeltelijk werd omgezet tot hard kwartsietgesteente, door metamorfe of diagenetische processen.</v>
       </c>
       <c r="H39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>kwartsietisch</v>
       </c>
       <c r="I39" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J39" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite</v>
+      </c>
+      <c r="K39" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite</v>
+      </c>
+      <c r="L39" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite</v>
+      </c>
+      <c r="M39" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/43</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ma</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C40" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.43</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ma</v>
       </c>
       <c r="D40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval dat een marmer-achtige verkleuring vertoond of gespikkeld is.</v>
       </c>
       <c r="E40" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F40" t="str">
+        <v>MA</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Interval dat een marmer-achtige verkleuring vertoond of gespikkeld is.</v>
+      </c>
+      <c r="H40" t="str">
         <v>marmering / spikkeling</v>
       </c>
-      <c r="G40" t="str">
-        <v>43</v>
-      </c>
-      <c r="H40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
       <c r="I40" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J40" t="str">
+        <v>null</v>
+      </c>
+      <c r="K40" t="str">
+        <v>null</v>
+      </c>
+      <c r="L40" t="str">
+        <v>null</v>
+      </c>
+      <c r="M40" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/44</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/me</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C41" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.44</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.me</v>
       </c>
       <c r="D41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval met mergelige banken.</v>
       </c>
       <c r="E41" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F41" t="str">
-        <v>dolomiethoudend</v>
+        <v>ME</v>
       </c>
       <c r="G41" t="str">
-        <v>44</v>
+        <v>Interval met mergelige banken.</v>
       </c>
       <c r="H41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>mergelige banken</v>
       </c>
       <c r="I41" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J41" t="str">
+        <v>null</v>
+      </c>
+      <c r="K41" t="str">
+        <v>null</v>
+      </c>
+      <c r="L41" t="str">
+        <v>null</v>
+      </c>
+      <c r="M41" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/45</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mi</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C42" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.45</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.mi</v>
       </c>
       <c r="D42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval dat mica's (glimmers, plaatsvormige fylosilicaten) bevat.</v>
       </c>
       <c r="E42" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F42" t="str">
-        <v>septaria</v>
+        <v>MI</v>
       </c>
       <c r="G42" t="str">
-        <v>45</v>
+        <v>Interval dat mica's (glimmers, plaatsvormige fylosilicaten) bevat.</v>
       </c>
       <c r="H42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>micahoudend</v>
       </c>
       <c r="I42" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J42" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica</v>
+      </c>
+      <c r="K42" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica</v>
+      </c>
+      <c r="L42" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica</v>
+      </c>
+      <c r="M42" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/46</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mk</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C43" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.46</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.mk</v>
       </c>
       <c r="D43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Knol bestaande uit markasiet.</v>
       </c>
       <c r="E43" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F43" t="str">
-        <v>'coal ball'</v>
+        <v>MK</v>
       </c>
       <c r="G43" t="str">
-        <v>46</v>
+        <v>Knol bestaande uit markasiet.</v>
       </c>
       <c r="H43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>markasietknollen</v>
       </c>
       <c r="I43" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J43" t="str">
+        <v>null</v>
+      </c>
+      <c r="K43" t="str">
+        <v>null</v>
+      </c>
+      <c r="L43" t="str">
+        <v>null</v>
+      </c>
+      <c r="M43" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/5</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ok</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C44" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.5</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ok</v>
       </c>
       <c r="D44" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval waarin kalk oorspronkelijk aanwezig was maar waarin dit werd opgelost en uitgespoeld.</v>
       </c>
       <c r="E44" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F44" t="str">
-        <v>doffe pyriet</v>
+        <v>OK</v>
       </c>
       <c r="G44" t="str">
-        <v>5</v>
+        <v>Interval waarin kalk oorspronkelijk aanwezig was maar waarin dit werd opgelost en uitgespoeld.</v>
       </c>
       <c r="H44" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>ontkalkt</v>
       </c>
       <c r="I44" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J44" t="str">
+        <v>null</v>
+      </c>
+      <c r="K44" t="str">
+        <v>null</v>
+      </c>
+      <c r="L44" t="str">
+        <v>null</v>
+      </c>
+      <c r="M44" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/51</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/on</v>
       </c>
       <c r="B45" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C45" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.51</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.on</v>
       </c>
       <c r="D45" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Geen secundair kenmerk bepaald.</v>
       </c>
       <c r="E45" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F45" t="str">
-        <v>kleiig</v>
+        <v>ON</v>
       </c>
       <c r="G45" t="str">
-        <v>51</v>
+        <v>Geen secundair kenmerk bepaald.</v>
       </c>
       <c r="H45" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>onbepaald</v>
       </c>
       <c r="I45" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J45" t="str">
+        <v>null</v>
+      </c>
+      <c r="K45" t="str">
+        <v>null</v>
+      </c>
+      <c r="L45" t="str">
+        <v>null</v>
+      </c>
+      <c r="M45" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/52</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ov</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C46" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.52</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ov</v>
       </c>
       <c r="D46" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval met onregelmatige concreties, aaneengekit door kiezel of silica.</v>
       </c>
       <c r="E46" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F46" t="str">
-        <v>kalklenzen / bankjes</v>
+        <v>OV</v>
       </c>
       <c r="G46" t="str">
-        <v>52</v>
+        <v>Interval met onregelmatige concreties, aaneengekit door kiezel of silica.</v>
       </c>
       <c r="H46" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>onregelmatige verkiezeling (concreties)</v>
       </c>
       <c r="I46" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J46" t="str">
+        <v>null</v>
+      </c>
+      <c r="K46" t="str">
+        <v>null</v>
+      </c>
+      <c r="L46" t="str">
+        <v>null</v>
+      </c>
+      <c r="M46" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/53</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pa</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C47" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.53</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.pa</v>
       </c>
       <c r="D47" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Een fossiele of begraven bodem.</v>
       </c>
       <c r="E47" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F47" t="str">
-        <v>limoniet- / ijzerhoudend</v>
+        <v>PA</v>
       </c>
       <c r="G47" t="str">
-        <v>53</v>
+        <v>Een fossiele of begraven bodem.</v>
       </c>
       <c r="H47" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>paleosol / gesloten bedding</v>
       </c>
       <c r="I47" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J47" t="str">
+        <v>null</v>
+      </c>
+      <c r="K47" t="str">
+        <v>null</v>
+      </c>
+      <c r="L47" t="str">
+        <v>null</v>
+      </c>
+      <c r="M47" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/54</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pd</v>
       </c>
       <c r="B48" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C48" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.54</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.pd</v>
       </c>
       <c r="D48" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Dofgekleurde pyriet (goudkleurig ijzersulfide).</v>
       </c>
       <c r="E48" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F48" t="str">
-        <v>lemig</v>
+        <v>PD</v>
       </c>
       <c r="G48" t="str">
-        <v>54</v>
+        <v>Dofgekleurde pyriet (goudkleurig ijzersulfide).</v>
       </c>
       <c r="H48" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>doffe pyriet</v>
       </c>
       <c r="I48" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J48" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+      </c>
+      <c r="K48" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+      </c>
+      <c r="L48" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+      </c>
+      <c r="M48" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/55</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ph</v>
       </c>
       <c r="B49" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C49" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.55</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ph</v>
       </c>
       <c r="D49" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Heldergekleurde pyriet (goudkleurig ijzersulfide).</v>
       </c>
       <c r="E49" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F49" t="str">
-        <v>ligniethoudend</v>
+        <v>PH</v>
       </c>
       <c r="G49" t="str">
-        <v>55</v>
+        <v>Heldergekleurde pyriet (goudkleurig ijzersulfide).</v>
       </c>
       <c r="H49" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>helle pyriet</v>
       </c>
       <c r="I49" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J49" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+      </c>
+      <c r="K49" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+      </c>
+      <c r="L49" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+      </c>
+      <c r="M49" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/56</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pk</v>
       </c>
       <c r="B50" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C50" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.56</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.pk</v>
       </c>
       <c r="D50" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Knol of laag bestaande uit pyriet (ijzersulfide).</v>
       </c>
       <c r="E50" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F50" t="str">
-        <v>micahoudend</v>
+        <v>PK</v>
       </c>
       <c r="G50" t="str">
-        <v>56</v>
+        <v>Knol of laag bestaande uit pyriet (ijzersulfide).</v>
       </c>
       <c r="H50" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>pyrietknol / laag</v>
       </c>
       <c r="I50" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J50" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+      </c>
+      <c r="K50" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+      </c>
+      <c r="L50" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+      </c>
+      <c r="M50" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/57</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/po</v>
       </c>
       <c r="B51" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C51" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.57</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.po</v>
       </c>
       <c r="D51" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Materiaal dat een significante hoeveelheid poriën of holten bevat, die gevuld kunnen zijn met een vloeibaar medium.</v>
       </c>
       <c r="E51" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F51" t="str">
-        <v>harde banken</v>
+        <v>PO</v>
       </c>
       <c r="G51" t="str">
-        <v>57</v>
+        <v>Materiaal dat een significante hoeveelheid poriën of holten bevat, die gevuld kunnen zijn met een vloeibaar medium.</v>
       </c>
       <c r="H51" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>poreus</v>
       </c>
       <c r="I51" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J51" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/AquiferMediaTypeValue/porous</v>
+      </c>
+      <c r="K51" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/AquiferMediaTypeValue/porous</v>
+      </c>
+      <c r="L51" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/AquiferMediaTypeValue/porous</v>
+      </c>
+      <c r="M51" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/58</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ps</v>
       </c>
       <c r="B52" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C52" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.58</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ps</v>
       </c>
       <c r="D52" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Gesteente met een sedimentaire zandige oorsprong.</v>
       </c>
       <c r="E52" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F52" t="str">
-        <v>zacht</v>
+        <v>PS</v>
       </c>
       <c r="G52" t="str">
-        <v>58</v>
+        <v>Gesteente met een sedimentaire zandige oorsprong.</v>
       </c>
       <c r="H52" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>psammitisch</v>
       </c>
       <c r="I52" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J52" t="str">
+        <v>null</v>
+      </c>
+      <c r="K52" t="str">
+        <v>null</v>
+      </c>
+      <c r="L52" t="str">
+        <v>null</v>
+      </c>
+      <c r="M52" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/59</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/py</v>
       </c>
       <c r="B53" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C53" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.59</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.py</v>
       </c>
       <c r="D53" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval waarin fossielen of mineralen omgezet werden naar pyriet door diagenetische processen.</v>
       </c>
       <c r="E53" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F53" t="str">
-        <v>zandig</v>
+        <v>PY</v>
       </c>
       <c r="G53" t="str">
-        <v>59</v>
+        <v>Interval waarin fossielen of mineralen omgezet werden naar pyriet door diagenetische processen.</v>
       </c>
       <c r="H53" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>gepyritiseerd</v>
       </c>
       <c r="I53" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J53" t="str">
+        <v>null</v>
+      </c>
+      <c r="K53" t="str">
+        <v>null</v>
+      </c>
+      <c r="L53" t="str">
+        <v>null</v>
+      </c>
+      <c r="M53" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/6</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sb</v>
       </c>
       <c r="B54" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C54" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.6</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.sb</v>
       </c>
       <c r="D54" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Steenfragmenten van diverse oorsprong.</v>
       </c>
       <c r="E54" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F54" t="str">
-        <v>helle pyriet</v>
+        <v>SB</v>
       </c>
       <c r="G54" t="str">
-        <v>6</v>
+        <v>Steenfragmenten van diverse oorsprong.</v>
       </c>
       <c r="H54" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>steenbrokjes</v>
       </c>
       <c r="I54" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J54" t="str">
+        <v>null</v>
+      </c>
+      <c r="K54" t="str">
+        <v>null</v>
+      </c>
+      <c r="L54" t="str">
+        <v>null</v>
+      </c>
+      <c r="M54" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/60</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sc</v>
       </c>
       <c r="B55" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C55" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.60</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.sc</v>
       </c>
       <c r="D55" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Een interval dat hoofdzakelijk bestaat uit gebroken schelpen.</v>
       </c>
       <c r="E55" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F55" t="str">
-        <v>basisgrind</v>
+        <v>SC</v>
       </c>
       <c r="G55" t="str">
-        <v>60</v>
+        <v>Een interval dat hoofdzakelijk bestaat uit gebroken schelpen.</v>
       </c>
       <c r="H55" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>coquina / schelpenkalk</v>
       </c>
       <c r="I55" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J55" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/shellGrit</v>
+      </c>
+      <c r="K55" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/shellGrit</v>
+      </c>
+      <c r="L55" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/shellGrit</v>
+      </c>
+      <c r="M55" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/61</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/se</v>
       </c>
       <c r="B56" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C56" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.61</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.se</v>
       </c>
       <c r="D56" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Een ronde afgeplatte carbonaatconcretie met krimpscheuren binnenin, mogelijk opgevuld met mineralisaties.</v>
       </c>
       <c r="E56" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F56" t="str">
-        <v>zandsteenbanken</v>
+        <v>SE</v>
       </c>
       <c r="G56" t="str">
-        <v>61</v>
+        <v>Een ronde afgeplatte carbonaatconcretie met krimpscheuren binnenin, mogelijk opgevuld met mineralisaties.</v>
       </c>
       <c r="H56" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>septaria</v>
       </c>
       <c r="I56" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J56" t="str">
+        <v>null</v>
+      </c>
+      <c r="K56" t="str">
+        <v>null</v>
+      </c>
+      <c r="L56" t="str">
+        <v>null</v>
+      </c>
+      <c r="M56" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/62</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/si</v>
       </c>
       <c r="B57" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C57" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.62</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.si</v>
       </c>
       <c r="D57" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Een fijne band binnen het beschreven interval rijk aan sideriet (ijzercarbonaat).</v>
       </c>
       <c r="E57" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F57" t="str">
-        <v>kleiige banken</v>
+        <v>SI</v>
       </c>
       <c r="G57" t="str">
-        <v>62</v>
+        <v>Een fijne band binnen het beschreven interval rijk aan sideriet (ijzercarbonaat).</v>
       </c>
       <c r="H57" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>siderietband</v>
       </c>
       <c r="I57" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J57" t="str">
+        <v>null</v>
+      </c>
+      <c r="K57" t="str">
+        <v>null</v>
+      </c>
+      <c r="L57" t="str">
+        <v>null</v>
+      </c>
+      <c r="M57" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/63</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sk</v>
       </c>
       <c r="B58" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C58" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.63</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.sk</v>
       </c>
       <c r="D58" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Een knol of lens bestaande uit sideriet (ijzercarbonaat).</v>
       </c>
       <c r="E58" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F58" t="str">
-        <v>mergelige banken</v>
+        <v>SK</v>
       </c>
       <c r="G58" t="str">
-        <v>63</v>
+        <v>Een knol of lens bestaande uit sideriet (ijzercarbonaat).</v>
       </c>
       <c r="H58" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>siderietknol / siderietlens</v>
       </c>
       <c r="I58" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J58" t="str">
+        <v>null</v>
+      </c>
+      <c r="K58" t="str">
+        <v>null</v>
+      </c>
+      <c r="L58" t="str">
+        <v>null</v>
+      </c>
+      <c r="M58" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/64</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sl</v>
       </c>
       <c r="B59" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C59" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.64</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.sl</v>
       </c>
       <c r="D59" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval met harde siltsteenbanken.</v>
       </c>
       <c r="E59" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F59" t="str">
-        <v>zandige banken</v>
+        <v>SL</v>
       </c>
       <c r="G59" t="str">
-        <v>64</v>
+        <v>Interval met harde siltsteenbanken.</v>
       </c>
       <c r="H59" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>siltsteenbanken</v>
       </c>
       <c r="I59" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J59" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
+      </c>
+      <c r="K59" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
+      </c>
+      <c r="L59" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
+      </c>
+      <c r="M59" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/65</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/st</v>
       </c>
       <c r="B60" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C60" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.65</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.st</v>
       </c>
       <c r="D60" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Klast bestaande uit siltsteen.</v>
       </c>
       <c r="E60" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F60" t="str">
-        <v>grindbanken</v>
+        <v>ST</v>
       </c>
       <c r="G60" t="str">
-        <v>65</v>
+        <v>Klast bestaande uit siltsteen.</v>
       </c>
       <c r="H60" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>siltsteenklasten</v>
       </c>
       <c r="I60" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J60" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
+      </c>
+      <c r="K60" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
+      </c>
+      <c r="L60" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
+      </c>
+      <c r="M60" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/66</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/to</v>
       </c>
       <c r="B61" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C61" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.66</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.to</v>
       </c>
       <c r="D61" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Hard sedimentair gesteente dat hoofdzakelijk uit het kleimineraal kaoliniet bestaat, ontstaan uit vulkanische as.</v>
       </c>
       <c r="E61" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F61" t="str">
-        <v>markasietknollen</v>
+        <v>TO</v>
       </c>
       <c r="G61" t="str">
-        <v>66</v>
+        <v>Hard sedimentair gesteente dat hoofdzakelijk uit het kleimineraal kaoliniet bestaat, ontstaan uit vulkanische as.</v>
       </c>
       <c r="H61" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>tonstein</v>
       </c>
       <c r="I61" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J61" t="str">
+        <v>null</v>
+      </c>
+      <c r="K61" t="str">
+        <v>null</v>
+      </c>
+      <c r="L61" t="str">
+        <v>null</v>
+      </c>
+      <c r="M61" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/67</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vd</v>
       </c>
       <c r="B62" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C62" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.67</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.vd</v>
       </c>
       <c r="D62" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Donkergrijze tot zwarte (klei)steenlaag net boven een steenkoollaag die geen deel uitmaakt van de koollaag, maar er op basis van de kleur en textuur toe gerekend zou kunnen worden.</v>
       </c>
       <c r="E62" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F62" t="str">
-        <v>kristallijn</v>
+        <v>VD</v>
       </c>
       <c r="G62" t="str">
-        <v>67</v>
+        <v>Donkergrijze tot zwarte (klei)steenlaag net boven een steenkoollaag die geen deel uitmaakt van de koollaag, maar er op basis van de kleur en textuur toe gerekend zou kunnen worden.</v>
       </c>
       <c r="H62" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>vals dak</v>
       </c>
       <c r="I62" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J62" t="str">
+        <v>null</v>
+      </c>
+      <c r="K62" t="str">
+        <v>null</v>
+      </c>
+      <c r="L62" t="str">
+        <v>null</v>
+      </c>
+      <c r="M62" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/68</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ve</v>
       </c>
       <c r="B63" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C63" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.68</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ve</v>
       </c>
       <c r="D63" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval rijk aan veldspaat.</v>
       </c>
       <c r="E63" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F63" t="str">
-        <v>kalkrijke banken</v>
+        <v>VE</v>
       </c>
       <c r="G63" t="str">
-        <v>68</v>
+        <v>Interval rijk aan veldspaat.</v>
       </c>
       <c r="H63" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>veldspaatrijk</v>
       </c>
       <c r="I63" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J63" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/feldspar</v>
+      </c>
+      <c r="K63" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/feldspar</v>
+      </c>
+      <c r="L63" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/feldspar</v>
+      </c>
+      <c r="M63" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/69</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vi</v>
       </c>
       <c r="B64" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C64" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.69</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.vi</v>
       </c>
       <c r="D64" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval waarin het mineraal vivianiet (ijzerfosfaat) voorkomt.</v>
       </c>
       <c r="E64" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F64" t="str">
-        <v>zachte banken</v>
+        <v>VI</v>
       </c>
       <c r="G64" t="str">
-        <v>69</v>
+        <v>Interval waarin het mineraal vivianiet (ijzerfosfaat) voorkomt.</v>
       </c>
       <c r="H64" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>vivianiethoudend</v>
       </c>
       <c r="I64" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J64" t="str">
+        <v>null</v>
+      </c>
+      <c r="K64" t="str">
+        <v>null</v>
+      </c>
+      <c r="L64" t="str">
+        <v>null</v>
+      </c>
+      <c r="M64" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/7</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vk</v>
       </c>
       <c r="B65" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C65" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.7</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.vk</v>
       </c>
       <c r="D65" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval dat aaneengekit is door de neerslag van kiezel of silica.</v>
       </c>
       <c r="E65" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F65" t="str">
-        <v>sferosideriet</v>
+        <v>VK</v>
       </c>
       <c r="G65" t="str">
-        <v>7</v>
+        <v>Interval dat aaneengekit is door de neerslag van kiezel of silica.</v>
       </c>
       <c r="H65" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>verkiezeld</v>
       </c>
       <c r="I65" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J65" t="str">
+        <v>null</v>
+      </c>
+      <c r="K65" t="str">
+        <v>null</v>
+      </c>
+      <c r="L65" t="str">
+        <v>null</v>
+      </c>
+      <c r="M65" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/70</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vm</v>
       </c>
       <c r="B66" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C66" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.70</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.vm</v>
       </c>
       <c r="D66" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Donker gekleurde (klei)steenlaag onder een steenkoollaag die geen deel uitmaakt van de koollaag, maar er op basis van de kleur kleur en textuur toe gerekend zou kunnen worden.</v>
       </c>
       <c r="E66" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F66" t="str">
-        <v>fijnkorrelig</v>
+        <v>VM</v>
       </c>
       <c r="G66" t="str">
-        <v>70</v>
+        <v>Donker gekleurde (klei)steenlaag onder een steenkoollaag die geen deel uitmaakt van de koollaag, maar er op basis van de kleur kleur en textuur toe gerekend zou kunnen worden.</v>
       </c>
       <c r="H66" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>valse muur (vloer)</v>
       </c>
       <c r="I66" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J66" t="str">
+        <v>null</v>
+      </c>
+      <c r="K66" t="str">
+        <v>null</v>
+      </c>
+      <c r="L66" t="str">
+        <v>null</v>
+      </c>
+      <c r="M66" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/71</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vw</v>
       </c>
       <c r="B67" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C67" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.71</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.vw</v>
       </c>
       <c r="D67" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval waarin het materiaal gedeeltelijk werd omgezet en afgebroken door chemische en fysische verwering.</v>
       </c>
       <c r="E67" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F67" t="str">
-        <v>grofkorrelig</v>
+        <v>VW</v>
       </c>
       <c r="G67" t="str">
-        <v>71</v>
+        <v>Interval waarin het materiaal gedeeltelijk werd omgezet en afgebroken door chemische en fysische verwering.</v>
       </c>
       <c r="H67" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>verweerd</v>
       </c>
       <c r="I67" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J67" t="str">
+        <v>null</v>
+      </c>
+      <c r="K67" t="str">
+        <v>null</v>
+      </c>
+      <c r="L67" t="str">
+        <v>null</v>
+      </c>
+      <c r="M67" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/72</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/za</v>
       </c>
       <c r="B68" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C68" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.72</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.za</v>
       </c>
       <c r="D68" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Zacht materiaal.</v>
       </c>
       <c r="E68" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F68" t="str">
-        <v>onregelmatige verkiezeling (concreties)</v>
+        <v>ZA</v>
       </c>
       <c r="G68" t="str">
-        <v>72</v>
+        <v>Zacht materiaal.</v>
       </c>
       <c r="H68" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>zacht</v>
       </c>
       <c r="I68" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J68" t="str">
+        <v>null</v>
+      </c>
+      <c r="K68" t="str">
+        <v>null</v>
+      </c>
+      <c r="L68" t="str">
+        <v>null</v>
+      </c>
+      <c r="M68" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/73</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zb</v>
       </c>
       <c r="B69" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C69" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.73</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.zb</v>
       </c>
       <c r="D69" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval met zandige banken.</v>
       </c>
       <c r="E69" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F69" t="str">
-        <v>hematiethoudend / hematietoölieten</v>
+        <v>ZB</v>
       </c>
       <c r="G69" t="str">
-        <v>73</v>
+        <v>Interval met zandige banken.</v>
       </c>
       <c r="H69" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>zandige banken</v>
       </c>
       <c r="I69" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J69" t="str">
+        <v>null</v>
+      </c>
+      <c r="K69" t="str">
+        <v>null</v>
+      </c>
+      <c r="L69" t="str">
+        <v>null</v>
+      </c>
+      <c r="M69" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/74</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zc</v>
       </c>
       <c r="B70" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C70" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.74</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.zc</v>
       </c>
       <c r="D70" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval met zachte banken.</v>
       </c>
       <c r="E70" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F70" t="str">
-        <v>zandsteenklasten</v>
+        <v>ZC</v>
       </c>
       <c r="G70" t="str">
-        <v>74</v>
+        <v>Interval met zachte banken.</v>
       </c>
       <c r="H70" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>zachte banken</v>
       </c>
       <c r="I70" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J70" t="str">
+        <v>null</v>
+      </c>
+      <c r="K70" t="str">
+        <v>null</v>
+      </c>
+      <c r="L70" t="str">
+        <v>null</v>
+      </c>
+      <c r="M70" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/75</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zk</v>
       </c>
       <c r="B71" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C71" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.75</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.zk</v>
       </c>
       <c r="D71" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Klasten van zandsteen.</v>
       </c>
       <c r="E71" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F71" t="str">
-        <v>kalkhoudend</v>
+        <v>ZK</v>
       </c>
       <c r="G71" t="str">
-        <v>75</v>
+        <v>Klasten van zandsteen.</v>
       </c>
       <c r="H71" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>zandsteenklasten</v>
       </c>
       <c r="I71" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J71" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="K71" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="L71" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="M71" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/76</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zn</v>
       </c>
       <c r="B72" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C72" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.76</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.zn</v>
       </c>
       <c r="D72" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>Interval met harde zandsteenbanken.</v>
       </c>
       <c r="E72" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="F72" t="str">
-        <v>anhydrietknollen / lenzen</v>
+        <v>ZN</v>
       </c>
       <c r="G72" t="str">
-        <v>76</v>
+        <v>Interval met harde zandsteenbanken.</v>
       </c>
       <c r="H72" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>zandsteenbanken</v>
       </c>
       <c r="I72" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="J72" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="K72" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="L72" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="M72" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/77</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="B73" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C73" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.77</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.secundairekenmerktype</v>
       </c>
       <c r="D73" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="E73" t="str">
         <v>null</v>
       </c>
       <c r="F73" t="str">
-        <v>sideriethoudend</v>
+        <v>null</v>
       </c>
       <c r="G73" t="str">
-        <v>77</v>
+        <v>null</v>
       </c>
       <c r="H73" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>lijst met types secundaire kenmerken</v>
       </c>
       <c r="I73" t="str">
         <v>null</v>
+      </c>
+      <c r="J73" t="str">
+        <v>null</v>
+      </c>
+      <c r="K73" t="str">
+        <v>null</v>
+      </c>
+      <c r="L73" t="str">
+        <v>null</v>
+      </c>
+      <c r="M73" t="str">
+        <v>concepts:sf|concepts:sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pd|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ph|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bi|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kl|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ks|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kw|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ak|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/an|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bg|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/br|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ca|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/cc|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/co|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/do|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/es|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/fi|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/fo|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gi|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gr|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/hb|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/is|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ka|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kb|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ke|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ki|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kj|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ko|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kp|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kr|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kt|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ma|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/me|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mi|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ok|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/on|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ov|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pa|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/po|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ps|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/py|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sb|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sc|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/se|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/si|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sl|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/st|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/to|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vd|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ve|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vi|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vm|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vw|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/za|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zb|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zc|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zn</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/78</v>
+        <v>https://inspire.ec.europa.eu/codelist/AquiferMediaTypeValue/porous</v>
       </c>
       <c r="B74" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C74" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.78</v>
+        <v>null</v>
       </c>
       <c r="D74" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="E74" t="str">
         <v>null</v>
       </c>
       <c r="F74" t="str">
-        <v>siltsteenklasten</v>
+        <v>null</v>
       </c>
       <c r="G74" t="str">
-        <v>78</v>
+        <v>null</v>
       </c>
       <c r="H74" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="I74" t="str">
+        <v>null</v>
+      </c>
+      <c r="J74" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/po</v>
+      </c>
+      <c r="K74" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/po</v>
+      </c>
+      <c r="L74" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/po</v>
+      </c>
+      <c r="M74" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/79</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/anhydrite</v>
       </c>
       <c r="B75" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C75" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.79</v>
+        <v>null</v>
       </c>
       <c r="D75" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="E75" t="str">
         <v>null</v>
       </c>
       <c r="F75" t="str">
-        <v>kleisteenklasten</v>
+        <v>null</v>
       </c>
       <c r="G75" t="str">
-        <v>79</v>
+        <v>null</v>
       </c>
       <c r="H75" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="I75" t="str">
+        <v>null</v>
+      </c>
+      <c r="J75" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/an</v>
+      </c>
+      <c r="K75" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/an</v>
+      </c>
+      <c r="L75" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/an</v>
+      </c>
+      <c r="M75" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/8</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/feldspar</v>
       </c>
       <c r="B76" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C76" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.8</v>
+        <v>null</v>
       </c>
       <c r="D76" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="E76" t="str">
         <v>null</v>
       </c>
       <c r="F76" t="str">
-        <v>kaoliniet oölieten</v>
+        <v>null</v>
       </c>
       <c r="G76" t="str">
-        <v>8</v>
+        <v>null</v>
       </c>
       <c r="H76" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="I76" t="str">
+        <v>null</v>
+      </c>
+      <c r="J76" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ve</v>
+      </c>
+      <c r="K76" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ve</v>
+      </c>
+      <c r="L76" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ve</v>
+      </c>
+      <c r="M76" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/80</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/gypsum</v>
       </c>
       <c r="B77" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C77" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.80</v>
+        <v>null</v>
       </c>
       <c r="D77" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="E77" t="str">
         <v>null</v>
       </c>
       <c r="F77" t="str">
-        <v>siltsteenbanken</v>
+        <v>null</v>
       </c>
       <c r="G77" t="str">
-        <v>80</v>
+        <v>null</v>
       </c>
       <c r="H77" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="I77" t="str">
+        <v>null</v>
+      </c>
+      <c r="J77" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gi</v>
+      </c>
+      <c r="K77" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gi</v>
+      </c>
+      <c r="L77" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gi</v>
+      </c>
+      <c r="M77" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/81</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/kaolin</v>
       </c>
       <c r="B78" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C78" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.81</v>
+        <v>null</v>
       </c>
       <c r="D78" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="E78" t="str">
         <v>null</v>
       </c>
       <c r="F78" t="str">
-        <v>kalksteenbanken</v>
+        <v>null</v>
       </c>
       <c r="G78" t="str">
-        <v>81</v>
+        <v>null</v>
       </c>
       <c r="H78" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="I78" t="str">
+        <v>null</v>
+      </c>
+      <c r="J78" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ka</v>
+      </c>
+      <c r="K78" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ka</v>
+      </c>
+      <c r="L78" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ka</v>
+      </c>
+      <c r="M78" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/82</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica</v>
       </c>
       <c r="B79" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C79" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.82</v>
+        <v>null</v>
       </c>
       <c r="D79" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="E79" t="str">
         <v>null</v>
       </c>
       <c r="F79" t="str">
-        <v>kleisteenlenzen / -banken</v>
+        <v>null</v>
       </c>
       <c r="G79" t="str">
-        <v>82</v>
+        <v>null</v>
       </c>
       <c r="H79" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="I79" t="str">
+        <v>null</v>
+      </c>
+      <c r="J79" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mi</v>
+      </c>
+      <c r="K79" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mi</v>
+      </c>
+      <c r="L79" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mi</v>
+      </c>
+      <c r="M79" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/83</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/shellGrit</v>
       </c>
       <c r="B80" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C80" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.83</v>
+        <v>null</v>
       </c>
       <c r="D80" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="E80" t="str">
         <v>null</v>
       </c>
       <c r="F80" t="str">
-        <v>chalcopyrietknollen / -lagen</v>
+        <v>null</v>
       </c>
       <c r="G80" t="str">
-        <v>83</v>
+        <v>null</v>
       </c>
       <c r="H80" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="I80" t="str">
+        <v>null</v>
+      </c>
+      <c r="J80" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sc</v>
+      </c>
+      <c r="K80" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sc</v>
+      </c>
+      <c r="L80" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sc</v>
+      </c>
+      <c r="M80" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/84</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryMaterial</v>
       </c>
       <c r="B81" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C81" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.84</v>
+        <v>null</v>
       </c>
       <c r="D81" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="E81" t="str">
         <v>null</v>
       </c>
       <c r="F81" t="str">
-        <v>dolomietbanken</v>
+        <v>null</v>
       </c>
       <c r="G81" t="str">
-        <v>84</v>
+        <v>null</v>
       </c>
       <c r="H81" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="I81" t="str">
+        <v>null</v>
+      </c>
+      <c r="J81" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ca</v>
+      </c>
+      <c r="K81" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ca</v>
+      </c>
+      <c r="L81" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ca</v>
+      </c>
+      <c r="M81" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/85</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/chalk</v>
       </c>
       <c r="B82" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C82" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.85</v>
+        <v>null</v>
       </c>
       <c r="D82" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="E82" t="str">
         <v>null</v>
       </c>
       <c r="F82" t="str">
-        <v>krijtklasten</v>
+        <v>null</v>
       </c>
       <c r="G82" t="str">
-        <v>85</v>
+        <v>null</v>
       </c>
       <c r="H82" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="I82" t="str">
+        <v>null</v>
+      </c>
+      <c r="J82" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kj</v>
+      </c>
+      <c r="K82" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kj</v>
+      </c>
+      <c r="L82" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kj</v>
+      </c>
+      <c r="M82" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/86</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
       </c>
       <c r="B83" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C83" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.86</v>
+        <v>null</v>
       </c>
       <c r="D83" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="E83" t="str">
         <v>null</v>
       </c>
       <c r="F83" t="str">
-        <v>pyriet</v>
+        <v>null</v>
       </c>
       <c r="G83" t="str">
-        <v>86</v>
+        <v>null</v>
       </c>
       <c r="H83" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="I83" t="str">
+        <v>null</v>
+      </c>
+      <c r="J83" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kt</v>
+      </c>
+      <c r="K83" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kt</v>
+      </c>
+      <c r="L83" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kt</v>
+      </c>
+      <c r="M83" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/9</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/dolomite</v>
       </c>
       <c r="B84" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C84" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.9</v>
+        <v>null</v>
       </c>
       <c r="D84" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="E84" t="str">
         <v>null</v>
       </c>
       <c r="F84" t="str">
-        <v>coquina / schelpenkalk</v>
+        <v>null</v>
       </c>
       <c r="G84" t="str">
-        <v>9</v>
+        <v>null</v>
       </c>
       <c r="H84" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="I84" t="str">
+        <v>null</v>
+      </c>
+      <c r="J84" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/do</v>
+      </c>
+      <c r="K84" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/do</v>
+      </c>
+      <c r="L84" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/do</v>
+      </c>
+      <c r="M84" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
       </c>
       <c r="B85" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C85" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="D85" t="str">
         <v>null</v>
@@ -2855,7 +3863,7 @@
         <v>null</v>
       </c>
       <c r="F85" t="str">
-        <v>lijst met types secundaire kenmerken</v>
+        <v>null</v>
       </c>
       <c r="G85" t="str">
         <v>null</v>
@@ -2864,12 +3872,65 @@
         <v>null</v>
       </c>
       <c r="I85" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/0|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/10|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/11|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/12|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/13|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/14|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/15|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/16|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/17|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/18|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/19|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/1|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/20|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/21|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/22|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/23|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/24|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/25|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/26|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/27|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/28|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/29|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/2|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/30|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/31|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/32|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/33|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/34|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/35|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/36|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/37|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/38|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/3|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/40|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/41|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/42|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/43|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/44|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/45|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/46|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/4|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/51|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/52|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/53|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/54|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/55|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/56|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/57|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/58|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/59|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/5|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/60|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/61|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/62|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/63|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/64|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/65|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/66|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/67|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/68|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/69|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/6|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/70|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/71|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/72|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/73|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/74|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/75|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/76|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/77|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/78|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/79|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/7|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/80|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/81|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/82|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/83|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/84|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/85|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/86|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/8|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/9</v>
+        <v>null</v>
+      </c>
+      <c r="J85" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zn</v>
+      </c>
+      <c r="K85" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zn</v>
+      </c>
+      <c r="L85" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zn</v>
+      </c>
+      <c r="M85" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
+      </c>
+      <c r="B86" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C86" t="str">
+        <v>null</v>
+      </c>
+      <c r="D86" t="str">
+        <v>null</v>
+      </c>
+      <c r="E86" t="str">
+        <v>null</v>
+      </c>
+      <c r="F86" t="str">
+        <v>null</v>
+      </c>
+      <c r="G86" t="str">
+        <v>null</v>
+      </c>
+      <c r="H86" t="str">
+        <v>null</v>
+      </c>
+      <c r="I86" t="str">
+        <v>null</v>
+      </c>
+      <c r="J86" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sl|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/st</v>
+      </c>
+      <c r="K86" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sl|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/st</v>
+      </c>
+      <c r="L86" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sl|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/st</v>
+      </c>
+      <c r="M86" t="str">
+        <v>null</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I85"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M86"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/secundairekenmerktype/secundairekenmerktype.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/secundairekenmerktype/secundairekenmerktype.xlsx
@@ -410,34 +410,34 @@
         <v>type</v>
       </c>
       <c r="C1" t="str">
+        <v>closeMatch</v>
+      </c>
+      <c r="D1" t="str">
+        <v>mappingRelation</v>
+      </c>
+      <c r="E1" t="str">
+        <v>semanticRelation</v>
+      </c>
+      <c r="F1" t="str">
         <v>dc\.identifier</v>
       </c>
-      <c r="D1" t="str">
+      <c r="G1" t="str">
         <v>definition</v>
       </c>
-      <c r="E1" t="str">
+      <c r="H1" t="str">
         <v>inScheme</v>
       </c>
-      <c r="F1" t="str">
+      <c r="I1" t="str">
         <v>notation</v>
       </c>
-      <c r="G1" t="str">
+      <c r="J1" t="str">
         <v>note</v>
       </c>
-      <c r="H1" t="str">
+      <c r="K1" t="str">
         <v>prefLabel</v>
       </c>
-      <c r="I1" t="str">
+      <c r="L1" t="str">
         <v>topConceptOf</v>
-      </c>
-      <c r="J1" t="str">
-        <v>closeMatch</v>
-      </c>
-      <c r="K1" t="str">
-        <v>mappingRelation</v>
-      </c>
-      <c r="L1" t="str">
-        <v>semanticRelation</v>
       </c>
       <c r="M1" t="str">
         <v>hasTopConcept</v>
@@ -445,31 +445,31 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>concepts:sf</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
       </c>
       <c r="B2" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C2" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.sf</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pd|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ph|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pk</v>
       </c>
       <c r="D2" t="str">
-        <v>Sideriet (ijzercarbonaat) in de vorm van een sferoïdale massa.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pd|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ph|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pk</v>
       </c>
       <c r="E2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pd|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ph|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pk</v>
       </c>
       <c r="F2" t="str">
-        <v>SF</v>
+        <v>null</v>
       </c>
       <c r="G2" t="str">
-        <v>Sideriet (ijzercarbonaat) in de vorm van een sferoïdale massa.</v>
+        <v>null</v>
       </c>
       <c r="H2" t="str">
-        <v>sferosideriet</v>
+        <v>null</v>
       </c>
       <c r="I2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="J2" t="str">
         <v>null</v>
@@ -486,31 +486,31 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>concepts:sh</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bitumen</v>
       </c>
       <c r="B3" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C3" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.sh</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bi</v>
       </c>
       <c r="D3" t="str">
-        <v>Interval dat silikaat bevat.</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bi</v>
       </c>
       <c r="E3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bi</v>
       </c>
       <c r="F3" t="str">
-        <v>SH</v>
+        <v>null</v>
       </c>
       <c r="G3" t="str">
-        <v>Interval dat silikaat bevat.</v>
+        <v>null</v>
       </c>
       <c r="H3" t="str">
-        <v>silikaathoudend</v>
+        <v>null</v>
       </c>
       <c r="I3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="J3" t="str">
         <v>null</v>
@@ -527,19 +527,19 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment</v>
       </c>
       <c r="B4" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C4" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kl</v>
       </c>
       <c r="D4" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kl</v>
       </c>
       <c r="E4" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kl</v>
       </c>
       <c r="F4" t="str">
         <v>null</v>
@@ -554,13 +554,13 @@
         <v>null</v>
       </c>
       <c r="J4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pd|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ph|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pk</v>
+        <v>null</v>
       </c>
       <c r="K4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pd|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ph|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pk</v>
+        <v>null</v>
       </c>
       <c r="L4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pd|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ph|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pk</v>
+        <v>null</v>
       </c>
       <c r="M4" t="str">
         <v>null</v>
@@ -568,19 +568,19 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bitumen</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone</v>
       </c>
       <c r="B5" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C5" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ks</v>
       </c>
       <c r="D5" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ks</v>
       </c>
       <c r="E5" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ks</v>
       </c>
       <c r="F5" t="str">
         <v>null</v>
@@ -595,13 +595,13 @@
         <v>null</v>
       </c>
       <c r="J5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bi</v>
+        <v>null</v>
       </c>
       <c r="K5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bi</v>
+        <v>null</v>
       </c>
       <c r="L5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bi</v>
+        <v>null</v>
       </c>
       <c r="M5" t="str">
         <v>null</v>
@@ -609,19 +609,19 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite</v>
       </c>
       <c r="B6" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kw</v>
       </c>
       <c r="D6" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kw</v>
       </c>
       <c r="E6" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kw</v>
       </c>
       <c r="F6" t="str">
         <v>null</v>
@@ -636,13 +636,13 @@
         <v>null</v>
       </c>
       <c r="J6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kl</v>
+        <v>null</v>
       </c>
       <c r="K6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kl</v>
+        <v>null</v>
       </c>
       <c r="L6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kl</v>
+        <v>null</v>
       </c>
       <c r="M6" t="str">
         <v>null</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ak</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -665,25 +665,25 @@
         <v>null</v>
       </c>
       <c r="F7" t="str">
-        <v>null</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ak</v>
       </c>
       <c r="G7" t="str">
-        <v>null</v>
+        <v>Klasten van diverse oorsprong.</v>
       </c>
       <c r="H7" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I7" t="str">
-        <v>null</v>
+        <v>AK</v>
       </c>
       <c r="J7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ks</v>
+        <v>Klasten van diverse oorsprong.</v>
       </c>
       <c r="K7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ks</v>
+        <v>andere klasten</v>
       </c>
       <c r="L7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ks</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M7" t="str">
         <v>null</v>
@@ -691,40 +691,40 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/an</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>null</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/anhydrite</v>
       </c>
       <c r="D8" t="str">
-        <v>null</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/anhydrite</v>
       </c>
       <c r="E8" t="str">
-        <v>null</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/anhydrite</v>
       </c>
       <c r="F8" t="str">
-        <v>null</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.an</v>
       </c>
       <c r="G8" t="str">
-        <v>null</v>
+        <v>Knol of lens bestaande uit anhydriet (gedehydrateerd calciumsulfaat).</v>
       </c>
       <c r="H8" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I8" t="str">
-        <v>null</v>
+        <v>AN</v>
       </c>
       <c r="J8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kw</v>
+        <v>Knol of lens bestaande uit anhydriet (gedehydrateerd calciumsulfaat).</v>
       </c>
       <c r="K8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kw</v>
+        <v>anhydrietknollen / lenzen</v>
       </c>
       <c r="L8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kw</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M8" t="str">
         <v>null</v>
@@ -732,40 +732,40 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ak</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bg</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ak</v>
+        <v>null</v>
       </c>
       <c r="D9" t="str">
-        <v>Klasten van diverse oorsprong.</v>
+        <v>null</v>
       </c>
       <c r="E9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F9" t="str">
-        <v>AK</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.bg</v>
       </c>
       <c r="G9" t="str">
-        <v>Klasten van diverse oorsprong.</v>
+        <v>Een interval aan de basis van een geologisch pakket dat grind bevat.</v>
       </c>
       <c r="H9" t="str">
-        <v>andere klasten</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>BG</v>
       </c>
       <c r="J9" t="str">
-        <v>null</v>
+        <v>Een interval aan de basis van een geologisch pakket dat grind bevat.</v>
       </c>
       <c r="K9" t="str">
-        <v>null</v>
+        <v>basisgrind</v>
       </c>
       <c r="L9" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M9" t="str">
         <v>null</v>
@@ -773,40 +773,40 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/an</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bi</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.an</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bitumen</v>
       </c>
       <c r="D10" t="str">
-        <v>Knol of lens bestaande uit anhydriet (gedehydrateerd calciumsulfaat).</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bitumen</v>
       </c>
       <c r="E10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bitumen</v>
       </c>
       <c r="F10" t="str">
-        <v>AN</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.bi</v>
       </c>
       <c r="G10" t="str">
-        <v>Knol of lens bestaande uit anhydriet (gedehydrateerd calciumsulfaat).</v>
+        <v>Een interval met verhoogd gehalte organisch materiaal.</v>
       </c>
       <c r="H10" t="str">
-        <v>anhydrietknollen / lenzen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>BI</v>
       </c>
       <c r="J10" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/anhydrite</v>
+        <v>Een interval met verhoogd gehalte organisch materiaal.</v>
       </c>
       <c r="K10" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/anhydrite</v>
+        <v>bitumineus / kolig</v>
       </c>
       <c r="L10" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/anhydrite</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M10" t="str">
         <v>null</v>
@@ -814,40 +814,40 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bg</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/br</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.bg</v>
+        <v>null</v>
       </c>
       <c r="D11" t="str">
-        <v>Een interval aan de basis van een geologisch pakket dat grind bevat.</v>
+        <v>null</v>
       </c>
       <c r="E11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F11" t="str">
-        <v>BG</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.br</v>
       </c>
       <c r="G11" t="str">
-        <v>Een interval aan de basis van een geologisch pakket dat grind bevat.</v>
+        <v>Interval dat makkelijk afbrokkelt of versplintert in kleinere deeltjes.</v>
       </c>
       <c r="H11" t="str">
-        <v>basisgrind</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>BR</v>
       </c>
       <c r="J11" t="str">
-        <v>null</v>
+        <v>Interval dat makkelijk afbrokkelt of versplintert in kleinere deeltjes.</v>
       </c>
       <c r="K11" t="str">
-        <v>null</v>
+        <v>brokkelig / splinterig</v>
       </c>
       <c r="L11" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M11" t="str">
         <v>null</v>
@@ -855,40 +855,40 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bi</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ca</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.bi</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryMaterial</v>
       </c>
       <c r="D12" t="str">
-        <v>Een interval met verhoogd gehalte organisch materiaal.</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryMaterial</v>
       </c>
       <c r="E12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryMaterial</v>
       </c>
       <c r="F12" t="str">
-        <v>BI</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ca</v>
       </c>
       <c r="G12" t="str">
-        <v>Een interval met verhoogd gehalte organisch materiaal.</v>
+        <v>Sediment of gesteente dat carbonaat bevat.</v>
       </c>
       <c r="H12" t="str">
-        <v>bitumineus / kolig</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>CA</v>
       </c>
       <c r="J12" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bitumen</v>
+        <v>Sediment of gesteente dat carbonaat bevat.</v>
       </c>
       <c r="K12" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bitumen</v>
+        <v>carbonaathoudend</v>
       </c>
       <c r="L12" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bitumen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M12" t="str">
         <v>null</v>
@@ -896,40 +896,40 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/br</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/cc</v>
       </c>
       <c r="B13" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.br</v>
+        <v>null</v>
       </c>
       <c r="D13" t="str">
-        <v>Interval dat makkelijk afbrokkelt of versplintert in kleinere deeltjes.</v>
+        <v>null</v>
       </c>
       <c r="E13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F13" t="str">
-        <v>BR</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.cc</v>
       </c>
       <c r="G13" t="str">
-        <v>Interval dat makkelijk afbrokkelt of versplintert in kleinere deeltjes.</v>
+        <v>Concretie bestaande uit carbonaatmineralen.</v>
       </c>
       <c r="H13" t="str">
-        <v>brokkelig / splinterig</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>CC</v>
       </c>
       <c r="J13" t="str">
-        <v>null</v>
+        <v>Concretie bestaande uit carbonaatmineralen.</v>
       </c>
       <c r="K13" t="str">
-        <v>null</v>
+        <v>carbonaatconcretie</v>
       </c>
       <c r="L13" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M13" t="str">
         <v>null</v>
@@ -937,40 +937,40 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ca</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ch</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C14" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ca</v>
+        <v>null</v>
       </c>
       <c r="D14" t="str">
-        <v>Sediment of gesteente dat carbonaat bevat.</v>
+        <v>null</v>
       </c>
       <c r="E14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F14" t="str">
-        <v>CA</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ch</v>
       </c>
       <c r="G14" t="str">
-        <v>Sediment of gesteente dat carbonaat bevat.</v>
+        <v>Knol of laag bestaande uit chalcopyriet (koperijzersulfide).</v>
       </c>
       <c r="H14" t="str">
-        <v>carbonaathoudend</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>CH</v>
       </c>
       <c r="J14" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryMaterial</v>
+        <v>Knol of laag bestaande uit chalcopyriet (koperijzersulfide).</v>
       </c>
       <c r="K14" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryMaterial</v>
+        <v>chalcopyrietknollen / -lagen</v>
       </c>
       <c r="L14" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryMaterial</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M14" t="str">
         <v>null</v>
@@ -978,40 +978,40 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/cc</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/co</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.cc</v>
+        <v>null</v>
       </c>
       <c r="D15" t="str">
-        <v>Concretie bestaande uit carbonaatmineralen.</v>
+        <v>null</v>
       </c>
       <c r="E15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F15" t="str">
-        <v>CC</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.co</v>
       </c>
       <c r="G15" t="str">
-        <v>Concretie bestaande uit carbonaatmineralen.</v>
+        <v>Een brok versteend plantaardig materiaal meestal met een ronde vorm die voorkomt in steenkool lagen.</v>
       </c>
       <c r="H15" t="str">
-        <v>carbonaatconcretie</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>CO</v>
       </c>
       <c r="J15" t="str">
-        <v>null</v>
+        <v>Een brok versteend plantaardig materiaal meestal met een ronde vorm die voorkomt in steenkool lagen.</v>
       </c>
       <c r="K15" t="str">
-        <v>null</v>
+        <v>'coal ball'</v>
       </c>
       <c r="L15" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M15" t="str">
         <v>null</v>
@@ -1019,40 +1019,40 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ch</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/do</v>
       </c>
       <c r="B16" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C16" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ch</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/dolomite</v>
       </c>
       <c r="D16" t="str">
-        <v>Knol of laag bestaande uit chalcopyriet (koperijzersulfide).</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/dolomite</v>
       </c>
       <c r="E16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/dolomite</v>
       </c>
       <c r="F16" t="str">
-        <v>CH</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.do</v>
       </c>
       <c r="G16" t="str">
-        <v>Knol of laag bestaande uit chalcopyriet (koperijzersulfide).</v>
+        <v>Interval met harde dolomietbanken.</v>
       </c>
       <c r="H16" t="str">
-        <v>chalcopyrietknollen / -lagen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>DO</v>
       </c>
       <c r="J16" t="str">
-        <v>null</v>
+        <v>Interval met harde dolomietbanken.</v>
       </c>
       <c r="K16" t="str">
-        <v>null</v>
+        <v>dolomietbanken</v>
       </c>
       <c r="L16" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M16" t="str">
         <v>null</v>
@@ -1060,40 +1060,40 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/co</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/es</v>
       </c>
       <c r="B17" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C17" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.co</v>
+        <v>null</v>
       </c>
       <c r="D17" t="str">
-        <v>Een brok versteend plantaardig materiaal meestal met een ronde vorm die voorkomt in steenkool lagen.</v>
+        <v>null</v>
       </c>
       <c r="E17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F17" t="str">
-        <v>CO</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.es</v>
       </c>
       <c r="G17" t="str">
-        <v>Een brok versteend plantaardig materiaal meestal met een ronde vorm die voorkomt in steenkool lagen.</v>
+        <v>Kleisteen met een schilferige textuur.</v>
       </c>
       <c r="H17" t="str">
-        <v>'coal ball'</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>ES</v>
       </c>
       <c r="J17" t="str">
-        <v>null</v>
+        <v>Kleisteen met een schilferige textuur.</v>
       </c>
       <c r="K17" t="str">
-        <v>null</v>
+        <v>escaille</v>
       </c>
       <c r="L17" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M17" t="str">
         <v>null</v>
@@ -1101,40 +1101,40 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/do</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/fi</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C18" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.do</v>
+        <v>null</v>
       </c>
       <c r="D18" t="str">
-        <v>Interval met harde dolomietbanken.</v>
+        <v>null</v>
       </c>
       <c r="E18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F18" t="str">
-        <v>DO</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.fi</v>
       </c>
       <c r="G18" t="str">
-        <v>Interval met harde dolomietbanken.</v>
+        <v>Interval met fijnkorrelig sediment (bv. klei, silt, fijn zand).</v>
       </c>
       <c r="H18" t="str">
-        <v>dolomietbanken</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>FI</v>
       </c>
       <c r="J18" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/dolomite</v>
+        <v>Interval met fijnkorrelig sediment (bv. klei, silt, fijn zand).</v>
       </c>
       <c r="K18" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/dolomite</v>
+        <v>fijnkorrelig</v>
       </c>
       <c r="L18" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/dolomite</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M18" t="str">
         <v>null</v>
@@ -1142,40 +1142,40 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/es</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/fo</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C19" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.es</v>
+        <v>null</v>
       </c>
       <c r="D19" t="str">
-        <v>Kleisteen met een schilferige textuur.</v>
+        <v>null</v>
       </c>
       <c r="E19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F19" t="str">
-        <v>ES</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.fo</v>
       </c>
       <c r="G19" t="str">
-        <v>Kleisteen met een schilferige textuur.</v>
+        <v>Knol bestaande uit fosfaat.</v>
       </c>
       <c r="H19" t="str">
-        <v>escaille</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>FO</v>
       </c>
       <c r="J19" t="str">
-        <v>null</v>
+        <v>Knol bestaande uit fosfaat.</v>
       </c>
       <c r="K19" t="str">
-        <v>null</v>
+        <v>fosfaatknol</v>
       </c>
       <c r="L19" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M19" t="str">
         <v>null</v>
@@ -1183,40 +1183,40 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/fi</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gi</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C20" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.fi</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/gypsum</v>
       </c>
       <c r="D20" t="str">
-        <v>Interval met fijnkorrelig sediment (bv. klei, silt, fijn zand).</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/gypsum</v>
       </c>
       <c r="E20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/gypsum</v>
       </c>
       <c r="F20" t="str">
-        <v>FI</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.gi</v>
       </c>
       <c r="G20" t="str">
-        <v>Interval met fijnkorrelig sediment (bv. klei, silt, fijn zand).</v>
+        <v>Knol of lens bestaande uit gips (calciumsulfaat).</v>
       </c>
       <c r="H20" t="str">
-        <v>fijnkorrelig</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>GI</v>
       </c>
       <c r="J20" t="str">
-        <v>null</v>
+        <v>Knol of lens bestaande uit gips (calciumsulfaat).</v>
       </c>
       <c r="K20" t="str">
-        <v>null</v>
+        <v>gipsknollen / lenzen</v>
       </c>
       <c r="L20" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M20" t="str">
         <v>null</v>
@@ -1224,40 +1224,40 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/fo</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gk</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C21" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.fo</v>
+        <v>null</v>
       </c>
       <c r="D21" t="str">
-        <v>Knol bestaande uit fosfaat.</v>
+        <v>null</v>
       </c>
       <c r="E21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F21" t="str">
-        <v>FO</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.gk</v>
       </c>
       <c r="G21" t="str">
-        <v>Knol bestaande uit fosfaat.</v>
+        <v>Interval met grofkorrelig sediment (bv. grof zand, grind).</v>
       </c>
       <c r="H21" t="str">
-        <v>fosfaatknol</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>GK</v>
       </c>
       <c r="J21" t="str">
-        <v>null</v>
+        <v>Interval met grofkorrelig sediment (bv. grof zand, grind).</v>
       </c>
       <c r="K21" t="str">
-        <v>null</v>
+        <v>grofkorrelig</v>
       </c>
       <c r="L21" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M21" t="str">
         <v>null</v>
@@ -1265,40 +1265,40 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gi</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gr</v>
       </c>
       <c r="B22" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C22" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.gi</v>
+        <v>null</v>
       </c>
       <c r="D22" t="str">
-        <v>Knol of lens bestaande uit gips (calciumsulfaat).</v>
+        <v>null</v>
       </c>
       <c r="E22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F22" t="str">
-        <v>GI</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.gr</v>
       </c>
       <c r="G22" t="str">
-        <v>Knol of lens bestaande uit gips (calciumsulfaat).</v>
+        <v>Interval met grindbanken.</v>
       </c>
       <c r="H22" t="str">
-        <v>gipsknollen / lenzen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>GR</v>
       </c>
       <c r="J22" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/gypsum</v>
+        <v>Interval met grindbanken.</v>
       </c>
       <c r="K22" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/gypsum</v>
+        <v>grindbanken</v>
       </c>
       <c r="L22" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/gypsum</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M22" t="str">
         <v>null</v>
@@ -1306,40 +1306,40 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gk</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/hb</v>
       </c>
       <c r="B23" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C23" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.gk</v>
+        <v>null</v>
       </c>
       <c r="D23" t="str">
-        <v>Interval met grofkorrelig sediment (bv. grof zand, grind).</v>
+        <v>null</v>
       </c>
       <c r="E23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F23" t="str">
-        <v>GK</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.hb</v>
       </c>
       <c r="G23" t="str">
-        <v>Interval met grofkorrelig sediment (bv. grof zand, grind).</v>
+        <v>Interval met harde steenbanken.</v>
       </c>
       <c r="H23" t="str">
-        <v>grofkorrelig</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>HB</v>
       </c>
       <c r="J23" t="str">
-        <v>null</v>
+        <v>Interval met harde steenbanken.</v>
       </c>
       <c r="K23" t="str">
-        <v>null</v>
+        <v>harde banken</v>
       </c>
       <c r="L23" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M23" t="str">
         <v>null</v>
@@ -1347,40 +1347,40 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gr</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/is</v>
       </c>
       <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C24" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.gr</v>
+        <v>null</v>
       </c>
       <c r="D24" t="str">
-        <v>Interval met grindbanken.</v>
+        <v>null</v>
       </c>
       <c r="E24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F24" t="str">
-        <v>GR</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.is</v>
       </c>
       <c r="G24" t="str">
-        <v>Interval met grindbanken.</v>
+        <v>Zwarte ingekoolde resten van boomstammen.</v>
       </c>
       <c r="H24" t="str">
-        <v>grindbanken</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>IS</v>
       </c>
       <c r="J24" t="str">
-        <v>null</v>
+        <v>Zwarte ingekoolde resten van boomstammen.</v>
       </c>
       <c r="K24" t="str">
-        <v>null</v>
+        <v>ingekoolde stammen</v>
       </c>
       <c r="L24" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M24" t="str">
         <v>null</v>
@@ -1388,40 +1388,40 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/hb</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ka</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C25" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.hb</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/kaolin</v>
       </c>
       <c r="D25" t="str">
-        <v>Interval met harde steenbanken.</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/kaolin</v>
       </c>
       <c r="E25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/kaolin</v>
       </c>
       <c r="F25" t="str">
-        <v>HB</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ka</v>
       </c>
       <c r="G25" t="str">
-        <v>Interval met harde steenbanken.</v>
+        <v>Korrels opgebouwd uit concentrische lagen van kaoliniet.</v>
       </c>
       <c r="H25" t="str">
-        <v>harde banken</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>KA</v>
       </c>
       <c r="J25" t="str">
-        <v>null</v>
+        <v>Korrels opgebouwd uit concentrische lagen van kaoliniet.</v>
       </c>
       <c r="K25" t="str">
-        <v>null</v>
+        <v>kaoliniet oölieten</v>
       </c>
       <c r="L25" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M25" t="str">
         <v>null</v>
@@ -1429,40 +1429,40 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/is</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kb</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C26" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.is</v>
+        <v>null</v>
       </c>
       <c r="D26" t="str">
-        <v>Zwarte ingekoolde resten van boomstammen.</v>
+        <v>null</v>
       </c>
       <c r="E26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F26" t="str">
-        <v>IS</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kb</v>
       </c>
       <c r="G26" t="str">
-        <v>Zwarte ingekoolde resten van boomstammen.</v>
+        <v>Interval met harde kalkrijke banken.</v>
       </c>
       <c r="H26" t="str">
-        <v>ingekoolde stammen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>KB</v>
       </c>
       <c r="J26" t="str">
-        <v>null</v>
+        <v>Interval met harde kalkrijke banken.</v>
       </c>
       <c r="K26" t="str">
-        <v>null</v>
+        <v>kalkrijke banken</v>
       </c>
       <c r="L26" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M26" t="str">
         <v>null</v>
@@ -1470,40 +1470,40 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ka</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ke</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C27" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ka</v>
+        <v>null</v>
       </c>
       <c r="D27" t="str">
-        <v>Korrels opgebouwd uit concentrische lagen van kaoliniet.</v>
+        <v>null</v>
       </c>
       <c r="E27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F27" t="str">
-        <v>KA</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ke</v>
       </c>
       <c r="G27" t="str">
-        <v>Korrels opgebouwd uit concentrische lagen van kaoliniet.</v>
+        <v>Interval met kleiige banken.</v>
       </c>
       <c r="H27" t="str">
-        <v>kaoliniet oölieten</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>KE</v>
       </c>
       <c r="J27" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/kaolin</v>
+        <v>Interval met kleiige banken.</v>
       </c>
       <c r="K27" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/kaolin</v>
+        <v>kleiige banken</v>
       </c>
       <c r="L27" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/kaolin</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M27" t="str">
         <v>null</v>
@@ -1511,40 +1511,40 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kb</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ki</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C28" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kb</v>
+        <v>null</v>
       </c>
       <c r="D28" t="str">
-        <v>Interval met harde kalkrijke banken.</v>
+        <v>null</v>
       </c>
       <c r="E28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F28" t="str">
-        <v>KB</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ki</v>
       </c>
       <c r="G28" t="str">
-        <v>Interval met harde kalkrijke banken.</v>
+        <v>Interval waarin mineralen een kristallijne structuur hebben.</v>
       </c>
       <c r="H28" t="str">
-        <v>kalkrijke banken</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>KI</v>
       </c>
       <c r="J28" t="str">
-        <v>null</v>
+        <v>Interval waarin mineralen een kristallijne structuur hebben.</v>
       </c>
       <c r="K28" t="str">
-        <v>null</v>
+        <v>kristallijn</v>
       </c>
       <c r="L28" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M28" t="str">
         <v>null</v>
@@ -1552,40 +1552,40 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ke</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kj</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C29" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ke</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/chalk</v>
       </c>
       <c r="D29" t="str">
-        <v>Interval met kleiige banken.</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/chalk</v>
       </c>
       <c r="E29" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/chalk</v>
       </c>
       <c r="F29" t="str">
-        <v>KE</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kj</v>
       </c>
       <c r="G29" t="str">
-        <v>Interval met kleiige banken.</v>
+        <v>Klast bestaande uit krijt.</v>
       </c>
       <c r="H29" t="str">
-        <v>kleiige banken</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I29" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>KJ</v>
       </c>
       <c r="J29" t="str">
-        <v>null</v>
+        <v>Klast bestaande uit krijt.</v>
       </c>
       <c r="K29" t="str">
-        <v>null</v>
+        <v>krijtklasten</v>
       </c>
       <c r="L29" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M29" t="str">
         <v>null</v>
@@ -1593,40 +1593,40 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ki</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kk</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C30" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ki</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
       </c>
       <c r="D30" t="str">
-        <v>Interval waarin mineralen een kristallijne structuur hebben.</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
       </c>
       <c r="E30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
       </c>
       <c r="F30" t="str">
-        <v>KI</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kk</v>
       </c>
       <c r="G30" t="str">
-        <v>Interval waarin mineralen een kristallijne structuur hebben.</v>
+        <v>Klast bestaande uit kleisteen.</v>
       </c>
       <c r="H30" t="str">
-        <v>kristallijn</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>KK</v>
       </c>
       <c r="J30" t="str">
-        <v>null</v>
+        <v>Klast bestaande uit kleisteen.</v>
       </c>
       <c r="K30" t="str">
-        <v>null</v>
+        <v>kleisteenklasten</v>
       </c>
       <c r="L30" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M30" t="str">
         <v>null</v>
@@ -1634,40 +1634,40 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kj</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kl</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C31" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kj</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment</v>
       </c>
       <c r="D31" t="str">
-        <v>Klast bestaande uit krijt.</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment</v>
       </c>
       <c r="E31" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment</v>
       </c>
       <c r="F31" t="str">
-        <v>KJ</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kl</v>
       </c>
       <c r="G31" t="str">
-        <v>Klast bestaande uit krijt.</v>
+        <v>Lenzen die hoofdzakelijk uit kalk bestaan.</v>
       </c>
       <c r="H31" t="str">
-        <v>krijtklasten</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I31" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>KL</v>
       </c>
       <c r="J31" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/chalk</v>
+        <v>Lenzen die hoofdzakelijk uit kalk bestaan.</v>
       </c>
       <c r="K31" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/chalk</v>
+        <v>kalklenzen / bankjes</v>
       </c>
       <c r="L31" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/chalk</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M31" t="str">
         <v>null</v>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kk</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ko</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C32" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kk</v>
+        <v>null</v>
       </c>
       <c r="D32" t="str">
-        <v>Klast bestaande uit kleisteen.</v>
+        <v>null</v>
       </c>
       <c r="E32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F32" t="str">
-        <v>KK</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ko</v>
       </c>
       <c r="G32" t="str">
-        <v>Klast bestaande uit kleisteen.</v>
+        <v>Klasten van bruinkool of steenkool.</v>
       </c>
       <c r="H32" t="str">
-        <v>kleisteenklasten</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>KO</v>
       </c>
       <c r="J32" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
+        <v>Klasten van bruinkool of steenkool.</v>
       </c>
       <c r="K32" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
+        <v>koolklasten</v>
       </c>
       <c r="L32" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M32" t="str">
         <v>null</v>
@@ -1716,40 +1716,40 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kl</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kp</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C33" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kl</v>
+        <v>null</v>
       </c>
       <c r="D33" t="str">
-        <v>Lenzen die hoofdzakelijk uit kalk bestaan.</v>
+        <v>null</v>
       </c>
       <c r="E33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F33" t="str">
-        <v>KL</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kp</v>
       </c>
       <c r="G33" t="str">
-        <v>Lenzen die hoofdzakelijk uit kalk bestaan.</v>
+        <v>Zwarte strepen veroorzaakt door verkoold organisch materiaal.</v>
       </c>
       <c r="H33" t="str">
-        <v>kalklenzen / bankjes</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>KP</v>
       </c>
       <c r="J33" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment</v>
+        <v>Zwarte strepen veroorzaakt door verkoold organisch materiaal.</v>
       </c>
       <c r="K33" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment</v>
+        <v>koolstrepen</v>
       </c>
       <c r="L33" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M33" t="str">
         <v>null</v>
@@ -1757,40 +1757,40 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ko</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kr</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C34" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ko</v>
+        <v>null</v>
       </c>
       <c r="D34" t="str">
-        <v>Klasten van bruinkool of steenkool.</v>
+        <v>null</v>
       </c>
       <c r="E34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F34" t="str">
-        <v>KO</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kr</v>
       </c>
       <c r="G34" t="str">
-        <v>Klasten van bruinkool of steenkool.</v>
+        <v>Materiaal met een korrelige textuur.</v>
       </c>
       <c r="H34" t="str">
-        <v>koolklasten</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>KR</v>
       </c>
       <c r="J34" t="str">
-        <v>null</v>
+        <v>Materiaal met een korrelige textuur.</v>
       </c>
       <c r="K34" t="str">
-        <v>null</v>
+        <v>korrelig</v>
       </c>
       <c r="L34" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M34" t="str">
         <v>null</v>
@@ -1798,40 +1798,40 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ks</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C35" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kp</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone</v>
       </c>
       <c r="D35" t="str">
-        <v>Zwarte strepen veroorzaakt door verkoold organisch materiaal.</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone</v>
       </c>
       <c r="E35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone</v>
       </c>
       <c r="F35" t="str">
-        <v>KP</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ks</v>
       </c>
       <c r="G35" t="str">
-        <v>Zwarte strepen veroorzaakt door verkoold organisch materiaal.</v>
+        <v>Interval met harde kalksteenbanken.</v>
       </c>
       <c r="H35" t="str">
-        <v>koolstrepen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>KS</v>
       </c>
       <c r="J35" t="str">
-        <v>null</v>
+        <v>Interval met harde kalksteenbanken.</v>
       </c>
       <c r="K35" t="str">
-        <v>null</v>
+        <v>kalksteenbanken</v>
       </c>
       <c r="L35" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M35" t="str">
         <v>null</v>
@@ -1839,40 +1839,40 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kr</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kt</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C36" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kr</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
       </c>
       <c r="D36" t="str">
-        <v>Materiaal met een korrelige textuur.</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
       </c>
       <c r="E36" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
       </c>
       <c r="F36" t="str">
-        <v>KR</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kt</v>
       </c>
       <c r="G36" t="str">
-        <v>Materiaal met een korrelige textuur.</v>
+        <v>Lenzen of banken bestaande uit kleisteen.</v>
       </c>
       <c r="H36" t="str">
-        <v>korrelig</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I36" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>KT</v>
       </c>
       <c r="J36" t="str">
-        <v>null</v>
+        <v>Lenzen of banken bestaande uit kleisteen.</v>
       </c>
       <c r="K36" t="str">
-        <v>null</v>
+        <v>kleisteenlenzen / -banken</v>
       </c>
       <c r="L36" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M36" t="str">
         <v>null</v>
@@ -1880,40 +1880,40 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ks</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kw</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C37" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ks</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite</v>
       </c>
       <c r="D37" t="str">
-        <v>Interval met harde kalksteenbanken.</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite</v>
       </c>
       <c r="E37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite</v>
       </c>
       <c r="F37" t="str">
-        <v>KS</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kw</v>
       </c>
       <c r="G37" t="str">
-        <v>Interval met harde kalksteenbanken.</v>
+        <v>Interval waarin het materiaal geheel of gedeeltelijk werd omgezet tot hard kwartsietgesteente, door metamorfe of diagenetische processen.</v>
       </c>
       <c r="H37" t="str">
-        <v>kalksteenbanken</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>KW</v>
       </c>
       <c r="J37" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone</v>
+        <v>Interval waarin het materiaal geheel of gedeeltelijk werd omgezet tot hard kwartsietgesteente, door metamorfe of diagenetische processen.</v>
       </c>
       <c r="K37" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone</v>
+        <v>kwartsietisch</v>
       </c>
       <c r="L37" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M37" t="str">
         <v>null</v>
@@ -1921,40 +1921,40 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kt</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ma</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C38" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kt</v>
+        <v>null</v>
       </c>
       <c r="D38" t="str">
-        <v>Lenzen of banken bestaande uit kleisteen.</v>
+        <v>null</v>
       </c>
       <c r="E38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F38" t="str">
-        <v>KT</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ma</v>
       </c>
       <c r="G38" t="str">
-        <v>Lenzen of banken bestaande uit kleisteen.</v>
+        <v>Interval dat een marmer-achtige verkleuring vertoond of gespikkeld is.</v>
       </c>
       <c r="H38" t="str">
-        <v>kleisteenlenzen / -banken</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>MA</v>
       </c>
       <c r="J38" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
+        <v>Interval dat een marmer-achtige verkleuring vertoond of gespikkeld is.</v>
       </c>
       <c r="K38" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
+        <v>marmering / spikkeling</v>
       </c>
       <c r="L38" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M38" t="str">
         <v>null</v>
@@ -1962,40 +1962,40 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kw</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/me</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C39" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.kw</v>
+        <v>null</v>
       </c>
       <c r="D39" t="str">
-        <v>Interval waarin het materiaal geheel of gedeeltelijk werd omgezet tot hard kwartsietgesteente, door metamorfe of diagenetische processen.</v>
+        <v>null</v>
       </c>
       <c r="E39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F39" t="str">
-        <v>KW</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.me</v>
       </c>
       <c r="G39" t="str">
-        <v>Interval waarin het materiaal geheel of gedeeltelijk werd omgezet tot hard kwartsietgesteente, door metamorfe of diagenetische processen.</v>
+        <v>Interval met mergelige banken.</v>
       </c>
       <c r="H39" t="str">
-        <v>kwartsietisch</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>ME</v>
       </c>
       <c r="J39" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite</v>
+        <v>Interval met mergelige banken.</v>
       </c>
       <c r="K39" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite</v>
+        <v>mergelige banken</v>
       </c>
       <c r="L39" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M39" t="str">
         <v>null</v>
@@ -2003,40 +2003,40 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ma</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mi</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C40" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ma</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica</v>
       </c>
       <c r="D40" t="str">
-        <v>Interval dat een marmer-achtige verkleuring vertoond of gespikkeld is.</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica</v>
       </c>
       <c r="E40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica</v>
       </c>
       <c r="F40" t="str">
-        <v>MA</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.mi</v>
       </c>
       <c r="G40" t="str">
-        <v>Interval dat een marmer-achtige verkleuring vertoond of gespikkeld is.</v>
+        <v>Interval dat mica's (glimmers, plaatsvormige fylosilicaten) bevat.</v>
       </c>
       <c r="H40" t="str">
-        <v>marmering / spikkeling</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>MI</v>
       </c>
       <c r="J40" t="str">
-        <v>null</v>
+        <v>Interval dat mica's (glimmers, plaatsvormige fylosilicaten) bevat.</v>
       </c>
       <c r="K40" t="str">
-        <v>null</v>
+        <v>micahoudend</v>
       </c>
       <c r="L40" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M40" t="str">
         <v>null</v>
@@ -2044,40 +2044,40 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/me</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mk</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C41" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.me</v>
+        <v>null</v>
       </c>
       <c r="D41" t="str">
-        <v>Interval met mergelige banken.</v>
+        <v>null</v>
       </c>
       <c r="E41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F41" t="str">
-        <v>ME</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.mk</v>
       </c>
       <c r="G41" t="str">
-        <v>Interval met mergelige banken.</v>
+        <v>Knol bestaande uit markasiet.</v>
       </c>
       <c r="H41" t="str">
-        <v>mergelige banken</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>MK</v>
       </c>
       <c r="J41" t="str">
-        <v>null</v>
+        <v>Knol bestaande uit markasiet.</v>
       </c>
       <c r="K41" t="str">
-        <v>null</v>
+        <v>markasietknollen</v>
       </c>
       <c r="L41" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M41" t="str">
         <v>null</v>
@@ -2085,40 +2085,40 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mi</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ok</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C42" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.mi</v>
+        <v>null</v>
       </c>
       <c r="D42" t="str">
-        <v>Interval dat mica's (glimmers, plaatsvormige fylosilicaten) bevat.</v>
+        <v>null</v>
       </c>
       <c r="E42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F42" t="str">
-        <v>MI</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ok</v>
       </c>
       <c r="G42" t="str">
-        <v>Interval dat mica's (glimmers, plaatsvormige fylosilicaten) bevat.</v>
+        <v>Interval waarin kalk oorspronkelijk aanwezig was maar waarin dit werd opgelost en uitgespoeld.</v>
       </c>
       <c r="H42" t="str">
-        <v>micahoudend</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>OK</v>
       </c>
       <c r="J42" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica</v>
+        <v>Interval waarin kalk oorspronkelijk aanwezig was maar waarin dit werd opgelost en uitgespoeld.</v>
       </c>
       <c r="K42" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica</v>
+        <v>ontkalkt</v>
       </c>
       <c r="L42" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M42" t="str">
         <v>null</v>
@@ -2126,40 +2126,40 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mk</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/on</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C43" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.mk</v>
+        <v>null</v>
       </c>
       <c r="D43" t="str">
-        <v>Knol bestaande uit markasiet.</v>
+        <v>null</v>
       </c>
       <c r="E43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F43" t="str">
-        <v>MK</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.on</v>
       </c>
       <c r="G43" t="str">
-        <v>Knol bestaande uit markasiet.</v>
+        <v>Geen secundair kenmerk bepaald.</v>
       </c>
       <c r="H43" t="str">
-        <v>markasietknollen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>ON</v>
       </c>
       <c r="J43" t="str">
-        <v>null</v>
+        <v>Geen secundair kenmerk bepaald.</v>
       </c>
       <c r="K43" t="str">
-        <v>null</v>
+        <v>onbepaald</v>
       </c>
       <c r="L43" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M43" t="str">
         <v>null</v>
@@ -2167,40 +2167,40 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ok</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ov</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C44" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ok</v>
+        <v>null</v>
       </c>
       <c r="D44" t="str">
-        <v>Interval waarin kalk oorspronkelijk aanwezig was maar waarin dit werd opgelost en uitgespoeld.</v>
+        <v>null</v>
       </c>
       <c r="E44" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F44" t="str">
-        <v>OK</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ov</v>
       </c>
       <c r="G44" t="str">
-        <v>Interval waarin kalk oorspronkelijk aanwezig was maar waarin dit werd opgelost en uitgespoeld.</v>
+        <v>Interval met onregelmatige concreties, aaneengekit door kiezel of silica.</v>
       </c>
       <c r="H44" t="str">
-        <v>ontkalkt</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I44" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>OV</v>
       </c>
       <c r="J44" t="str">
-        <v>null</v>
+        <v>Interval met onregelmatige concreties, aaneengekit door kiezel of silica.</v>
       </c>
       <c r="K44" t="str">
-        <v>null</v>
+        <v>onregelmatige verkiezeling (concreties)</v>
       </c>
       <c r="L44" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M44" t="str">
         <v>null</v>
@@ -2208,40 +2208,40 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/on</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pa</v>
       </c>
       <c r="B45" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C45" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.on</v>
+        <v>null</v>
       </c>
       <c r="D45" t="str">
-        <v>Geen secundair kenmerk bepaald.</v>
+        <v>null</v>
       </c>
       <c r="E45" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F45" t="str">
-        <v>ON</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.pa</v>
       </c>
       <c r="G45" t="str">
-        <v>Geen secundair kenmerk bepaald.</v>
+        <v>Een fossiele of begraven bodem.</v>
       </c>
       <c r="H45" t="str">
-        <v>onbepaald</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I45" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>PA</v>
       </c>
       <c r="J45" t="str">
-        <v>null</v>
+        <v>Een fossiele of begraven bodem.</v>
       </c>
       <c r="K45" t="str">
-        <v>null</v>
+        <v>paleosol / gesloten bedding</v>
       </c>
       <c r="L45" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M45" t="str">
         <v>null</v>
@@ -2249,40 +2249,40 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ov</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pd</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C46" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ov</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
       </c>
       <c r="D46" t="str">
-        <v>Interval met onregelmatige concreties, aaneengekit door kiezel of silica.</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
       </c>
       <c r="E46" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
       </c>
       <c r="F46" t="str">
-        <v>OV</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.pd</v>
       </c>
       <c r="G46" t="str">
-        <v>Interval met onregelmatige concreties, aaneengekit door kiezel of silica.</v>
+        <v>Dofgekleurde pyriet (goudkleurig ijzersulfide).</v>
       </c>
       <c r="H46" t="str">
-        <v>onregelmatige verkiezeling (concreties)</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I46" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>PD</v>
       </c>
       <c r="J46" t="str">
-        <v>null</v>
+        <v>Dofgekleurde pyriet (goudkleurig ijzersulfide).</v>
       </c>
       <c r="K46" t="str">
-        <v>null</v>
+        <v>doffe pyriet</v>
       </c>
       <c r="L46" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M46" t="str">
         <v>null</v>
@@ -2290,40 +2290,40 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pa</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ph</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C47" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.pa</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
       </c>
       <c r="D47" t="str">
-        <v>Een fossiele of begraven bodem.</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
       </c>
       <c r="E47" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
       </c>
       <c r="F47" t="str">
-        <v>PA</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ph</v>
       </c>
       <c r="G47" t="str">
-        <v>Een fossiele of begraven bodem.</v>
+        <v>Heldergekleurde pyriet (goudkleurig ijzersulfide).</v>
       </c>
       <c r="H47" t="str">
-        <v>paleosol / gesloten bedding</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I47" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>PH</v>
       </c>
       <c r="J47" t="str">
-        <v>null</v>
+        <v>Heldergekleurde pyriet (goudkleurig ijzersulfide).</v>
       </c>
       <c r="K47" t="str">
-        <v>null</v>
+        <v>helle pyriet</v>
       </c>
       <c r="L47" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M47" t="str">
         <v>null</v>
@@ -2331,40 +2331,40 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pd</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pk</v>
       </c>
       <c r="B48" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C48" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.pd</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
       </c>
       <c r="D48" t="str">
-        <v>Dofgekleurde pyriet (goudkleurig ijzersulfide).</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
       </c>
       <c r="E48" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
       </c>
       <c r="F48" t="str">
-        <v>PD</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.pk</v>
       </c>
       <c r="G48" t="str">
-        <v>Dofgekleurde pyriet (goudkleurig ijzersulfide).</v>
+        <v>Knol of laag bestaande uit pyriet (ijzersulfide).</v>
       </c>
       <c r="H48" t="str">
-        <v>doffe pyriet</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I48" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>PK</v>
       </c>
       <c r="J48" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+        <v>Knol of laag bestaande uit pyriet (ijzersulfide).</v>
       </c>
       <c r="K48" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+        <v>pyrietknol / laag</v>
       </c>
       <c r="L48" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M48" t="str">
         <v>null</v>
@@ -2372,40 +2372,40 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ph</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/po</v>
       </c>
       <c r="B49" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C49" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ph</v>
+        <v>https://inspire.ec.europa.eu/codelist/AquiferMediaTypeValue/porous</v>
       </c>
       <c r="D49" t="str">
-        <v>Heldergekleurde pyriet (goudkleurig ijzersulfide).</v>
+        <v>https://inspire.ec.europa.eu/codelist/AquiferMediaTypeValue/porous</v>
       </c>
       <c r="E49" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>https://inspire.ec.europa.eu/codelist/AquiferMediaTypeValue/porous</v>
       </c>
       <c r="F49" t="str">
-        <v>PH</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.po</v>
       </c>
       <c r="G49" t="str">
-        <v>Heldergekleurde pyriet (goudkleurig ijzersulfide).</v>
+        <v>Materiaal dat een significante hoeveelheid poriën of holten bevat, die gevuld kunnen zijn met een vloeibaar medium.</v>
       </c>
       <c r="H49" t="str">
-        <v>helle pyriet</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I49" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>PO</v>
       </c>
       <c r="J49" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+        <v>Materiaal dat een significante hoeveelheid poriën of holten bevat, die gevuld kunnen zijn met een vloeibaar medium.</v>
       </c>
       <c r="K49" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+        <v>poreus</v>
       </c>
       <c r="L49" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M49" t="str">
         <v>null</v>
@@ -2413,40 +2413,40 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pk</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ps</v>
       </c>
       <c r="B50" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C50" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.pk</v>
+        <v>null</v>
       </c>
       <c r="D50" t="str">
-        <v>Knol of laag bestaande uit pyriet (ijzersulfide).</v>
+        <v>null</v>
       </c>
       <c r="E50" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F50" t="str">
-        <v>PK</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ps</v>
       </c>
       <c r="G50" t="str">
-        <v>Knol of laag bestaande uit pyriet (ijzersulfide).</v>
+        <v>Gesteente met een sedimentaire zandige oorsprong.</v>
       </c>
       <c r="H50" t="str">
-        <v>pyrietknol / laag</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I50" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>PS</v>
       </c>
       <c r="J50" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+        <v>Gesteente met een sedimentaire zandige oorsprong.</v>
       </c>
       <c r="K50" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+        <v>psammitisch</v>
       </c>
       <c r="L50" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M50" t="str">
         <v>null</v>
@@ -2454,40 +2454,40 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/po</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/py</v>
       </c>
       <c r="B51" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C51" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.po</v>
+        <v>null</v>
       </c>
       <c r="D51" t="str">
-        <v>Materiaal dat een significante hoeveelheid poriën of holten bevat, die gevuld kunnen zijn met een vloeibaar medium.</v>
+        <v>null</v>
       </c>
       <c r="E51" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F51" t="str">
-        <v>PO</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.py</v>
       </c>
       <c r="G51" t="str">
-        <v>Materiaal dat een significante hoeveelheid poriën of holten bevat, die gevuld kunnen zijn met een vloeibaar medium.</v>
+        <v>Interval waarin fossielen of mineralen omgezet werden naar pyriet door diagenetische processen.</v>
       </c>
       <c r="H51" t="str">
-        <v>poreus</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I51" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>PY</v>
       </c>
       <c r="J51" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/AquiferMediaTypeValue/porous</v>
+        <v>Interval waarin fossielen of mineralen omgezet werden naar pyriet door diagenetische processen.</v>
       </c>
       <c r="K51" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/AquiferMediaTypeValue/porous</v>
+        <v>gepyritiseerd</v>
       </c>
       <c r="L51" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/AquiferMediaTypeValue/porous</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M51" t="str">
         <v>null</v>
@@ -2495,40 +2495,40 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ps</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sb</v>
       </c>
       <c r="B52" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C52" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ps</v>
+        <v>null</v>
       </c>
       <c r="D52" t="str">
-        <v>Gesteente met een sedimentaire zandige oorsprong.</v>
+        <v>null</v>
       </c>
       <c r="E52" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F52" t="str">
-        <v>PS</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.sb</v>
       </c>
       <c r="G52" t="str">
-        <v>Gesteente met een sedimentaire zandige oorsprong.</v>
+        <v>Steenfragmenten van diverse oorsprong.</v>
       </c>
       <c r="H52" t="str">
-        <v>psammitisch</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I52" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>SB</v>
       </c>
       <c r="J52" t="str">
-        <v>null</v>
+        <v>Steenfragmenten van diverse oorsprong.</v>
       </c>
       <c r="K52" t="str">
-        <v>null</v>
+        <v>steenbrokjes</v>
       </c>
       <c r="L52" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M52" t="str">
         <v>null</v>
@@ -2536,40 +2536,40 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/py</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sc</v>
       </c>
       <c r="B53" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C53" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.py</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/shellGrit</v>
       </c>
       <c r="D53" t="str">
-        <v>Interval waarin fossielen of mineralen omgezet werden naar pyriet door diagenetische processen.</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/shellGrit</v>
       </c>
       <c r="E53" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/shellGrit</v>
       </c>
       <c r="F53" t="str">
-        <v>PY</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.sc</v>
       </c>
       <c r="G53" t="str">
-        <v>Interval waarin fossielen of mineralen omgezet werden naar pyriet door diagenetische processen.</v>
+        <v>Een interval dat hoofdzakelijk bestaat uit gebroken schelpen.</v>
       </c>
       <c r="H53" t="str">
-        <v>gepyritiseerd</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I53" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>SC</v>
       </c>
       <c r="J53" t="str">
-        <v>null</v>
+        <v>Een interval dat hoofdzakelijk bestaat uit gebroken schelpen.</v>
       </c>
       <c r="K53" t="str">
-        <v>null</v>
+        <v>coquina / schelpenkalk</v>
       </c>
       <c r="L53" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M53" t="str">
         <v>null</v>
@@ -2577,40 +2577,40 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sb</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/se</v>
       </c>
       <c r="B54" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C54" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.sb</v>
+        <v>null</v>
       </c>
       <c r="D54" t="str">
-        <v>Steenfragmenten van diverse oorsprong.</v>
+        <v>null</v>
       </c>
       <c r="E54" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F54" t="str">
-        <v>SB</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.se</v>
       </c>
       <c r="G54" t="str">
-        <v>Steenfragmenten van diverse oorsprong.</v>
+        <v>Een ronde afgeplatte carbonaatconcretie met krimpscheuren binnenin, mogelijk opgevuld met mineralisaties.</v>
       </c>
       <c r="H54" t="str">
-        <v>steenbrokjes</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I54" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>SE</v>
       </c>
       <c r="J54" t="str">
-        <v>null</v>
+        <v>Een ronde afgeplatte carbonaatconcretie met krimpscheuren binnenin, mogelijk opgevuld met mineralisaties.</v>
       </c>
       <c r="K54" t="str">
-        <v>null</v>
+        <v>septaria</v>
       </c>
       <c r="L54" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M54" t="str">
         <v>null</v>
@@ -2618,40 +2618,40 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sc</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sf</v>
       </c>
       <c r="B55" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C55" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.sc</v>
+        <v>null</v>
       </c>
       <c r="D55" t="str">
-        <v>Een interval dat hoofdzakelijk bestaat uit gebroken schelpen.</v>
+        <v>null</v>
       </c>
       <c r="E55" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F55" t="str">
-        <v>SC</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.sf</v>
       </c>
       <c r="G55" t="str">
-        <v>Een interval dat hoofdzakelijk bestaat uit gebroken schelpen.</v>
+        <v>Sideriet (ijzercarbonaat) in de vorm van een sferoïdale massa.</v>
       </c>
       <c r="H55" t="str">
-        <v>coquina / schelpenkalk</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I55" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>SF</v>
       </c>
       <c r="J55" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/shellGrit</v>
+        <v>Sideriet (ijzercarbonaat) in de vorm van een sferoïdale massa.</v>
       </c>
       <c r="K55" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/shellGrit</v>
+        <v>sferosideriet</v>
       </c>
       <c r="L55" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/shellGrit</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M55" t="str">
         <v>null</v>
@@ -2659,40 +2659,40 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/se</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sh</v>
       </c>
       <c r="B56" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C56" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.se</v>
+        <v>null</v>
       </c>
       <c r="D56" t="str">
-        <v>Een ronde afgeplatte carbonaatconcretie met krimpscheuren binnenin, mogelijk opgevuld met mineralisaties.</v>
+        <v>null</v>
       </c>
       <c r="E56" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>null</v>
       </c>
       <c r="F56" t="str">
-        <v>SE</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.sh</v>
       </c>
       <c r="G56" t="str">
-        <v>Een ronde afgeplatte carbonaatconcretie met krimpscheuren binnenin, mogelijk opgevuld met mineralisaties.</v>
+        <v>Interval dat silikaat bevat.</v>
       </c>
       <c r="H56" t="str">
-        <v>septaria</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="I56" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+        <v>SH</v>
       </c>
       <c r="J56" t="str">
-        <v>null</v>
+        <v>Interval dat silikaat bevat.</v>
       </c>
       <c r="K56" t="str">
-        <v>null</v>
+        <v>silikaathoudend</v>
       </c>
       <c r="L56" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M56" t="str">
         <v>null</v>
@@ -2706,34 +2706,34 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C57" t="str">
+        <v>null</v>
+      </c>
+      <c r="D57" t="str">
+        <v>null</v>
+      </c>
+      <c r="E57" t="str">
+        <v>null</v>
+      </c>
+      <c r="F57" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.si</v>
-      </c>
-      <c r="D57" t="str">
-        <v>Een fijne band binnen het beschreven interval rijk aan sideriet (ijzercarbonaat).</v>
-      </c>
-      <c r="E57" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="F57" t="str">
-        <v>SI</v>
       </c>
       <c r="G57" t="str">
         <v>Een fijne band binnen het beschreven interval rijk aan sideriet (ijzercarbonaat).</v>
       </c>
       <c r="H57" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="I57" t="str">
+        <v>SI</v>
+      </c>
+      <c r="J57" t="str">
+        <v>Een fijne band binnen het beschreven interval rijk aan sideriet (ijzercarbonaat).</v>
+      </c>
+      <c r="K57" t="str">
         <v>siderietband</v>
       </c>
-      <c r="I57" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="J57" t="str">
-        <v>null</v>
-      </c>
-      <c r="K57" t="str">
-        <v>null</v>
-      </c>
       <c r="L57" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M57" t="str">
         <v>null</v>
@@ -2747,34 +2747,34 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C58" t="str">
+        <v>null</v>
+      </c>
+      <c r="D58" t="str">
+        <v>null</v>
+      </c>
+      <c r="E58" t="str">
+        <v>null</v>
+      </c>
+      <c r="F58" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.sk</v>
-      </c>
-      <c r="D58" t="str">
-        <v>Een knol of lens bestaande uit sideriet (ijzercarbonaat).</v>
-      </c>
-      <c r="E58" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="F58" t="str">
-        <v>SK</v>
       </c>
       <c r="G58" t="str">
         <v>Een knol of lens bestaande uit sideriet (ijzercarbonaat).</v>
       </c>
       <c r="H58" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="I58" t="str">
+        <v>SK</v>
+      </c>
+      <c r="J58" t="str">
+        <v>Een knol of lens bestaande uit sideriet (ijzercarbonaat).</v>
+      </c>
+      <c r="K58" t="str">
         <v>siderietknol / siderietlens</v>
       </c>
-      <c r="I58" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="J58" t="str">
-        <v>null</v>
-      </c>
-      <c r="K58" t="str">
-        <v>null</v>
-      </c>
       <c r="L58" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M58" t="str">
         <v>null</v>
@@ -2788,34 +2788,34 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C59" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
+      </c>
+      <c r="D59" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
+      </c>
+      <c r="E59" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
+      </c>
+      <c r="F59" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.sl</v>
-      </c>
-      <c r="D59" t="str">
-        <v>Interval met harde siltsteenbanken.</v>
-      </c>
-      <c r="E59" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="F59" t="str">
-        <v>SL</v>
       </c>
       <c r="G59" t="str">
         <v>Interval met harde siltsteenbanken.</v>
       </c>
       <c r="H59" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="I59" t="str">
+        <v>SL</v>
+      </c>
+      <c r="J59" t="str">
+        <v>Interval met harde siltsteenbanken.</v>
+      </c>
+      <c r="K59" t="str">
         <v>siltsteenbanken</v>
       </c>
-      <c r="I59" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="J59" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
-      </c>
-      <c r="K59" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
-      </c>
       <c r="L59" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M59" t="str">
         <v>null</v>
@@ -2829,34 +2829,34 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C60" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
+      </c>
+      <c r="D60" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
+      </c>
+      <c r="E60" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
+      </c>
+      <c r="F60" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.st</v>
-      </c>
-      <c r="D60" t="str">
-        <v>Klast bestaande uit siltsteen.</v>
-      </c>
-      <c r="E60" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="F60" t="str">
-        <v>ST</v>
       </c>
       <c r="G60" t="str">
         <v>Klast bestaande uit siltsteen.</v>
       </c>
       <c r="H60" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="I60" t="str">
+        <v>ST</v>
+      </c>
+      <c r="J60" t="str">
+        <v>Klast bestaande uit siltsteen.</v>
+      </c>
+      <c r="K60" t="str">
         <v>siltsteenklasten</v>
       </c>
-      <c r="I60" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="J60" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
-      </c>
-      <c r="K60" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
-      </c>
       <c r="L60" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M60" t="str">
         <v>null</v>
@@ -2870,34 +2870,34 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C61" t="str">
+        <v>null</v>
+      </c>
+      <c r="D61" t="str">
+        <v>null</v>
+      </c>
+      <c r="E61" t="str">
+        <v>null</v>
+      </c>
+      <c r="F61" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.to</v>
-      </c>
-      <c r="D61" t="str">
-        <v>Hard sedimentair gesteente dat hoofdzakelijk uit het kleimineraal kaoliniet bestaat, ontstaan uit vulkanische as.</v>
-      </c>
-      <c r="E61" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="F61" t="str">
-        <v>TO</v>
       </c>
       <c r="G61" t="str">
         <v>Hard sedimentair gesteente dat hoofdzakelijk uit het kleimineraal kaoliniet bestaat, ontstaan uit vulkanische as.</v>
       </c>
       <c r="H61" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="I61" t="str">
+        <v>TO</v>
+      </c>
+      <c r="J61" t="str">
+        <v>Hard sedimentair gesteente dat hoofdzakelijk uit het kleimineraal kaoliniet bestaat, ontstaan uit vulkanische as.</v>
+      </c>
+      <c r="K61" t="str">
         <v>tonstein</v>
       </c>
-      <c r="I61" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="J61" t="str">
-        <v>null</v>
-      </c>
-      <c r="K61" t="str">
-        <v>null</v>
-      </c>
       <c r="L61" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M61" t="str">
         <v>null</v>
@@ -2911,34 +2911,34 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C62" t="str">
+        <v>null</v>
+      </c>
+      <c r="D62" t="str">
+        <v>null</v>
+      </c>
+      <c r="E62" t="str">
+        <v>null</v>
+      </c>
+      <c r="F62" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.vd</v>
-      </c>
-      <c r="D62" t="str">
-        <v>Donkergrijze tot zwarte (klei)steenlaag net boven een steenkoollaag die geen deel uitmaakt van de koollaag, maar er op basis van de kleur en textuur toe gerekend zou kunnen worden.</v>
-      </c>
-      <c r="E62" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="F62" t="str">
-        <v>VD</v>
       </c>
       <c r="G62" t="str">
         <v>Donkergrijze tot zwarte (klei)steenlaag net boven een steenkoollaag die geen deel uitmaakt van de koollaag, maar er op basis van de kleur en textuur toe gerekend zou kunnen worden.</v>
       </c>
       <c r="H62" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="I62" t="str">
+        <v>VD</v>
+      </c>
+      <c r="J62" t="str">
+        <v>Donkergrijze tot zwarte (klei)steenlaag net boven een steenkoollaag die geen deel uitmaakt van de koollaag, maar er op basis van de kleur en textuur toe gerekend zou kunnen worden.</v>
+      </c>
+      <c r="K62" t="str">
         <v>vals dak</v>
       </c>
-      <c r="I62" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="J62" t="str">
-        <v>null</v>
-      </c>
-      <c r="K62" t="str">
-        <v>null</v>
-      </c>
       <c r="L62" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M62" t="str">
         <v>null</v>
@@ -2952,34 +2952,34 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C63" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/feldspar</v>
+      </c>
+      <c r="D63" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/feldspar</v>
+      </c>
+      <c r="E63" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/feldspar</v>
+      </c>
+      <c r="F63" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.ve</v>
-      </c>
-      <c r="D63" t="str">
-        <v>Interval rijk aan veldspaat.</v>
-      </c>
-      <c r="E63" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="F63" t="str">
-        <v>VE</v>
       </c>
       <c r="G63" t="str">
         <v>Interval rijk aan veldspaat.</v>
       </c>
       <c r="H63" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="I63" t="str">
+        <v>VE</v>
+      </c>
+      <c r="J63" t="str">
+        <v>Interval rijk aan veldspaat.</v>
+      </c>
+      <c r="K63" t="str">
         <v>veldspaatrijk</v>
       </c>
-      <c r="I63" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="J63" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/feldspar</v>
-      </c>
-      <c r="K63" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/feldspar</v>
-      </c>
       <c r="L63" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/CommodityCodeValue/feldspar</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M63" t="str">
         <v>null</v>
@@ -2993,34 +2993,34 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C64" t="str">
+        <v>null</v>
+      </c>
+      <c r="D64" t="str">
+        <v>null</v>
+      </c>
+      <c r="E64" t="str">
+        <v>null</v>
+      </c>
+      <c r="F64" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.vi</v>
-      </c>
-      <c r="D64" t="str">
-        <v>Interval waarin het mineraal vivianiet (ijzerfosfaat) voorkomt.</v>
-      </c>
-      <c r="E64" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="F64" t="str">
-        <v>VI</v>
       </c>
       <c r="G64" t="str">
         <v>Interval waarin het mineraal vivianiet (ijzerfosfaat) voorkomt.</v>
       </c>
       <c r="H64" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="I64" t="str">
+        <v>VI</v>
+      </c>
+      <c r="J64" t="str">
+        <v>Interval waarin het mineraal vivianiet (ijzerfosfaat) voorkomt.</v>
+      </c>
+      <c r="K64" t="str">
         <v>vivianiethoudend</v>
       </c>
-      <c r="I64" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="J64" t="str">
-        <v>null</v>
-      </c>
-      <c r="K64" t="str">
-        <v>null</v>
-      </c>
       <c r="L64" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M64" t="str">
         <v>null</v>
@@ -3034,34 +3034,34 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C65" t="str">
+        <v>null</v>
+      </c>
+      <c r="D65" t="str">
+        <v>null</v>
+      </c>
+      <c r="E65" t="str">
+        <v>null</v>
+      </c>
+      <c r="F65" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.vk</v>
-      </c>
-      <c r="D65" t="str">
-        <v>Interval dat aaneengekit is door de neerslag van kiezel of silica.</v>
-      </c>
-      <c r="E65" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="F65" t="str">
-        <v>VK</v>
       </c>
       <c r="G65" t="str">
         <v>Interval dat aaneengekit is door de neerslag van kiezel of silica.</v>
       </c>
       <c r="H65" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="I65" t="str">
+        <v>VK</v>
+      </c>
+      <c r="J65" t="str">
+        <v>Interval dat aaneengekit is door de neerslag van kiezel of silica.</v>
+      </c>
+      <c r="K65" t="str">
         <v>verkiezeld</v>
       </c>
-      <c r="I65" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="J65" t="str">
-        <v>null</v>
-      </c>
-      <c r="K65" t="str">
-        <v>null</v>
-      </c>
       <c r="L65" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M65" t="str">
         <v>null</v>
@@ -3075,34 +3075,34 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C66" t="str">
+        <v>null</v>
+      </c>
+      <c r="D66" t="str">
+        <v>null</v>
+      </c>
+      <c r="E66" t="str">
+        <v>null</v>
+      </c>
+      <c r="F66" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.vm</v>
-      </c>
-      <c r="D66" t="str">
-        <v>Donker gekleurde (klei)steenlaag onder een steenkoollaag die geen deel uitmaakt van de koollaag, maar er op basis van de kleur kleur en textuur toe gerekend zou kunnen worden.</v>
-      </c>
-      <c r="E66" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="F66" t="str">
-        <v>VM</v>
       </c>
       <c r="G66" t="str">
         <v>Donker gekleurde (klei)steenlaag onder een steenkoollaag die geen deel uitmaakt van de koollaag, maar er op basis van de kleur kleur en textuur toe gerekend zou kunnen worden.</v>
       </c>
       <c r="H66" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="I66" t="str">
+        <v>VM</v>
+      </c>
+      <c r="J66" t="str">
+        <v>Donker gekleurde (klei)steenlaag onder een steenkoollaag die geen deel uitmaakt van de koollaag, maar er op basis van de kleur kleur en textuur toe gerekend zou kunnen worden.</v>
+      </c>
+      <c r="K66" t="str">
         <v>valse muur (vloer)</v>
       </c>
-      <c r="I66" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="J66" t="str">
-        <v>null</v>
-      </c>
-      <c r="K66" t="str">
-        <v>null</v>
-      </c>
       <c r="L66" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M66" t="str">
         <v>null</v>
@@ -3116,34 +3116,34 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C67" t="str">
+        <v>null</v>
+      </c>
+      <c r="D67" t="str">
+        <v>null</v>
+      </c>
+      <c r="E67" t="str">
+        <v>null</v>
+      </c>
+      <c r="F67" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.vw</v>
-      </c>
-      <c r="D67" t="str">
-        <v>Interval waarin het materiaal gedeeltelijk werd omgezet en afgebroken door chemische en fysische verwering.</v>
-      </c>
-      <c r="E67" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="F67" t="str">
-        <v>VW</v>
       </c>
       <c r="G67" t="str">
         <v>Interval waarin het materiaal gedeeltelijk werd omgezet en afgebroken door chemische en fysische verwering.</v>
       </c>
       <c r="H67" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="I67" t="str">
+        <v>VW</v>
+      </c>
+      <c r="J67" t="str">
+        <v>Interval waarin het materiaal gedeeltelijk werd omgezet en afgebroken door chemische en fysische verwering.</v>
+      </c>
+      <c r="K67" t="str">
         <v>verweerd</v>
       </c>
-      <c r="I67" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="J67" t="str">
-        <v>null</v>
-      </c>
-      <c r="K67" t="str">
-        <v>null</v>
-      </c>
       <c r="L67" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M67" t="str">
         <v>null</v>
@@ -3157,34 +3157,34 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C68" t="str">
+        <v>null</v>
+      </c>
+      <c r="D68" t="str">
+        <v>null</v>
+      </c>
+      <c r="E68" t="str">
+        <v>null</v>
+      </c>
+      <c r="F68" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.za</v>
-      </c>
-      <c r="D68" t="str">
-        <v>Zacht materiaal.</v>
-      </c>
-      <c r="E68" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="F68" t="str">
-        <v>ZA</v>
       </c>
       <c r="G68" t="str">
         <v>Zacht materiaal.</v>
       </c>
       <c r="H68" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="I68" t="str">
+        <v>ZA</v>
+      </c>
+      <c r="J68" t="str">
+        <v>Zacht materiaal.</v>
+      </c>
+      <c r="K68" t="str">
         <v>zacht</v>
       </c>
-      <c r="I68" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="J68" t="str">
-        <v>null</v>
-      </c>
-      <c r="K68" t="str">
-        <v>null</v>
-      </c>
       <c r="L68" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M68" t="str">
         <v>null</v>
@@ -3198,34 +3198,34 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C69" t="str">
+        <v>null</v>
+      </c>
+      <c r="D69" t="str">
+        <v>null</v>
+      </c>
+      <c r="E69" t="str">
+        <v>null</v>
+      </c>
+      <c r="F69" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.zb</v>
-      </c>
-      <c r="D69" t="str">
-        <v>Interval met zandige banken.</v>
-      </c>
-      <c r="E69" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="F69" t="str">
-        <v>ZB</v>
       </c>
       <c r="G69" t="str">
         <v>Interval met zandige banken.</v>
       </c>
       <c r="H69" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="I69" t="str">
+        <v>ZB</v>
+      </c>
+      <c r="J69" t="str">
+        <v>Interval met zandige banken.</v>
+      </c>
+      <c r="K69" t="str">
         <v>zandige banken</v>
       </c>
-      <c r="I69" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="J69" t="str">
-        <v>null</v>
-      </c>
-      <c r="K69" t="str">
-        <v>null</v>
-      </c>
       <c r="L69" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M69" t="str">
         <v>null</v>
@@ -3239,34 +3239,34 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C70" t="str">
+        <v>null</v>
+      </c>
+      <c r="D70" t="str">
+        <v>null</v>
+      </c>
+      <c r="E70" t="str">
+        <v>null</v>
+      </c>
+      <c r="F70" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.zc</v>
-      </c>
-      <c r="D70" t="str">
-        <v>Interval met zachte banken.</v>
-      </c>
-      <c r="E70" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="F70" t="str">
-        <v>ZC</v>
       </c>
       <c r="G70" t="str">
         <v>Interval met zachte banken.</v>
       </c>
       <c r="H70" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="I70" t="str">
+        <v>ZC</v>
+      </c>
+      <c r="J70" t="str">
+        <v>Interval met zachte banken.</v>
+      </c>
+      <c r="K70" t="str">
         <v>zachte banken</v>
       </c>
-      <c r="I70" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="J70" t="str">
-        <v>null</v>
-      </c>
-      <c r="K70" t="str">
-        <v>null</v>
-      </c>
       <c r="L70" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M70" t="str">
         <v>null</v>
@@ -3280,34 +3280,34 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C71" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="D71" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="E71" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="F71" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.zk</v>
-      </c>
-      <c r="D71" t="str">
-        <v>Klasten van zandsteen.</v>
-      </c>
-      <c r="E71" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="F71" t="str">
-        <v>ZK</v>
       </c>
       <c r="G71" t="str">
         <v>Klasten van zandsteen.</v>
       </c>
       <c r="H71" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="I71" t="str">
+        <v>ZK</v>
+      </c>
+      <c r="J71" t="str">
+        <v>Klasten van zandsteen.</v>
+      </c>
+      <c r="K71" t="str">
         <v>zandsteenklasten</v>
       </c>
-      <c r="I71" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="J71" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
-      </c>
-      <c r="K71" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
-      </c>
       <c r="L71" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M71" t="str">
         <v>null</v>
@@ -3321,34 +3321,34 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C72" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="D72" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="E72" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="F72" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.secundairekenmerktype.zn</v>
-      </c>
-      <c r="D72" t="str">
-        <v>Interval met harde zandsteenbanken.</v>
-      </c>
-      <c r="E72" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="F72" t="str">
-        <v>ZN</v>
       </c>
       <c r="G72" t="str">
         <v>Interval met harde zandsteenbanken.</v>
       </c>
       <c r="H72" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
+      </c>
+      <c r="I72" t="str">
+        <v>ZN</v>
+      </c>
+      <c r="J72" t="str">
+        <v>Interval met harde zandsteenbanken.</v>
+      </c>
+      <c r="K72" t="str">
         <v>zandsteenbanken</v>
       </c>
-      <c r="I72" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
-      </c>
-      <c r="J72" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
-      </c>
-      <c r="K72" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
-      </c>
       <c r="L72" t="str">
-        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/secundairekenmerktype</v>
       </c>
       <c r="M72" t="str">
         <v>null</v>
@@ -3362,37 +3362,37 @@
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C73" t="str">
+        <v>null</v>
+      </c>
+      <c r="D73" t="str">
+        <v>null</v>
+      </c>
+      <c r="E73" t="str">
+        <v>null</v>
+      </c>
+      <c r="F73" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.secundairekenmerktype</v>
       </c>
-      <c r="D73" t="str">
-        <v>null</v>
-      </c>
-      <c r="E73" t="str">
-        <v>null</v>
-      </c>
-      <c r="F73" t="str">
-        <v>null</v>
-      </c>
       <c r="G73" t="str">
         <v>null</v>
       </c>
       <c r="H73" t="str">
+        <v>null</v>
+      </c>
+      <c r="I73" t="str">
+        <v>null</v>
+      </c>
+      <c r="J73" t="str">
+        <v>null</v>
+      </c>
+      <c r="K73" t="str">
         <v>lijst met types secundaire kenmerken</v>
       </c>
-      <c r="I73" t="str">
-        <v>null</v>
-      </c>
-      <c r="J73" t="str">
-        <v>null</v>
-      </c>
-      <c r="K73" t="str">
-        <v>null</v>
-      </c>
       <c r="L73" t="str">
         <v>null</v>
       </c>
       <c r="M73" t="str">
-        <v>concepts:sf|concepts:sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pd|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ph|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bi|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kl|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ks|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kw|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ak|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/an|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bg|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/br|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ca|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/cc|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/co|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/do|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/es|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/fi|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/fo|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gi|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gr|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/hb|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/is|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ka|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kb|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ke|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ki|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kj|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ko|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kp|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kr|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kt|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ma|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/me|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mi|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ok|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/on|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ov|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pa|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/po|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ps|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/py|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sb|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sc|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/se|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/si|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sl|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/st|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/to|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vd|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ve|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vi|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vm|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vw|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/za|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zb|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zc|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zn</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pd|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ph|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bi|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kl|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ks|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kw|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ak|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/an|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/bg|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/br|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ca|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/cc|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/co|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/do|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/es|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/fi|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/fo|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gi|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gr|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/hb|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/is|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ka|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kb|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ke|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ki|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kj|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ko|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kp|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kr|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kt|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ma|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/me|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mi|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ok|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/on|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ov|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/pa|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/po|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ps|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/py|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sb|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sc|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/se|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sf|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/si|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sl|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/st|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/to|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vd|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ve|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vi|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vm|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/vw|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/za|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zb|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zc|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zn</v>
       </c>
     </row>
     <row r="74">
@@ -3403,13 +3403,13 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C74" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/po</v>
       </c>
       <c r="D74" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/po</v>
       </c>
       <c r="E74" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/po</v>
       </c>
       <c r="F74" t="str">
         <v>null</v>
@@ -3424,13 +3424,13 @@
         <v>null</v>
       </c>
       <c r="J74" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/po</v>
+        <v>null</v>
       </c>
       <c r="K74" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/po</v>
+        <v>null</v>
       </c>
       <c r="L74" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/po</v>
+        <v>null</v>
       </c>
       <c r="M74" t="str">
         <v>null</v>
@@ -3444,13 +3444,13 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C75" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/an</v>
       </c>
       <c r="D75" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/an</v>
       </c>
       <c r="E75" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/an</v>
       </c>
       <c r="F75" t="str">
         <v>null</v>
@@ -3465,13 +3465,13 @@
         <v>null</v>
       </c>
       <c r="J75" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/an</v>
+        <v>null</v>
       </c>
       <c r="K75" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/an</v>
+        <v>null</v>
       </c>
       <c r="L75" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/an</v>
+        <v>null</v>
       </c>
       <c r="M75" t="str">
         <v>null</v>
@@ -3485,13 +3485,13 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C76" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ve</v>
       </c>
       <c r="D76" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ve</v>
       </c>
       <c r="E76" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ve</v>
       </c>
       <c r="F76" t="str">
         <v>null</v>
@@ -3506,13 +3506,13 @@
         <v>null</v>
       </c>
       <c r="J76" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ve</v>
+        <v>null</v>
       </c>
       <c r="K76" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ve</v>
+        <v>null</v>
       </c>
       <c r="L76" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ve</v>
+        <v>null</v>
       </c>
       <c r="M76" t="str">
         <v>null</v>
@@ -3526,13 +3526,13 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C77" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gi</v>
       </c>
       <c r="D77" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gi</v>
       </c>
       <c r="E77" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gi</v>
       </c>
       <c r="F77" t="str">
         <v>null</v>
@@ -3547,13 +3547,13 @@
         <v>null</v>
       </c>
       <c r="J77" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gi</v>
+        <v>null</v>
       </c>
       <c r="K77" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gi</v>
+        <v>null</v>
       </c>
       <c r="L77" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/gi</v>
+        <v>null</v>
       </c>
       <c r="M77" t="str">
         <v>null</v>
@@ -3567,13 +3567,13 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C78" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ka</v>
       </c>
       <c r="D78" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ka</v>
       </c>
       <c r="E78" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ka</v>
       </c>
       <c r="F78" t="str">
         <v>null</v>
@@ -3588,13 +3588,13 @@
         <v>null</v>
       </c>
       <c r="J78" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ka</v>
+        <v>null</v>
       </c>
       <c r="K78" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ka</v>
+        <v>null</v>
       </c>
       <c r="L78" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ka</v>
+        <v>null</v>
       </c>
       <c r="M78" t="str">
         <v>null</v>
@@ -3608,13 +3608,13 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C79" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mi</v>
       </c>
       <c r="D79" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mi</v>
       </c>
       <c r="E79" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mi</v>
       </c>
       <c r="F79" t="str">
         <v>null</v>
@@ -3629,13 +3629,13 @@
         <v>null</v>
       </c>
       <c r="J79" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mi</v>
+        <v>null</v>
       </c>
       <c r="K79" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mi</v>
+        <v>null</v>
       </c>
       <c r="L79" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/mi</v>
+        <v>null</v>
       </c>
       <c r="M79" t="str">
         <v>null</v>
@@ -3649,13 +3649,13 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C80" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sc</v>
       </c>
       <c r="D80" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sc</v>
       </c>
       <c r="E80" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sc</v>
       </c>
       <c r="F80" t="str">
         <v>null</v>
@@ -3670,13 +3670,13 @@
         <v>null</v>
       </c>
       <c r="J80" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sc</v>
+        <v>null</v>
       </c>
       <c r="K80" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sc</v>
+        <v>null</v>
       </c>
       <c r="L80" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sc</v>
+        <v>null</v>
       </c>
       <c r="M80" t="str">
         <v>null</v>
@@ -3690,13 +3690,13 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C81" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ca</v>
       </c>
       <c r="D81" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ca</v>
       </c>
       <c r="E81" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ca</v>
       </c>
       <c r="F81" t="str">
         <v>null</v>
@@ -3711,13 +3711,13 @@
         <v>null</v>
       </c>
       <c r="J81" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ca</v>
+        <v>null</v>
       </c>
       <c r="K81" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ca</v>
+        <v>null</v>
       </c>
       <c r="L81" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/ca</v>
+        <v>null</v>
       </c>
       <c r="M81" t="str">
         <v>null</v>
@@ -3731,13 +3731,13 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C82" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kj</v>
       </c>
       <c r="D82" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kj</v>
       </c>
       <c r="E82" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kj</v>
       </c>
       <c r="F82" t="str">
         <v>null</v>
@@ -3752,13 +3752,13 @@
         <v>null</v>
       </c>
       <c r="J82" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kj</v>
+        <v>null</v>
       </c>
       <c r="K82" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kj</v>
+        <v>null</v>
       </c>
       <c r="L82" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kj</v>
+        <v>null</v>
       </c>
       <c r="M82" t="str">
         <v>null</v>
@@ -3772,13 +3772,13 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C83" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kt</v>
       </c>
       <c r="D83" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kt</v>
       </c>
       <c r="E83" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kt</v>
       </c>
       <c r="F83" t="str">
         <v>null</v>
@@ -3793,13 +3793,13 @@
         <v>null</v>
       </c>
       <c r="J83" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kt</v>
+        <v>null</v>
       </c>
       <c r="K83" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kt</v>
+        <v>null</v>
       </c>
       <c r="L83" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/kt</v>
+        <v>null</v>
       </c>
       <c r="M83" t="str">
         <v>null</v>
@@ -3813,13 +3813,13 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C84" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/do</v>
       </c>
       <c r="D84" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/do</v>
       </c>
       <c r="E84" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/do</v>
       </c>
       <c r="F84" t="str">
         <v>null</v>
@@ -3834,13 +3834,13 @@
         <v>null</v>
       </c>
       <c r="J84" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/do</v>
+        <v>null</v>
       </c>
       <c r="K84" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/do</v>
+        <v>null</v>
       </c>
       <c r="L84" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/do</v>
+        <v>null</v>
       </c>
       <c r="M84" t="str">
         <v>null</v>
@@ -3854,13 +3854,13 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C85" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zn</v>
       </c>
       <c r="D85" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zn</v>
       </c>
       <c r="E85" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zn</v>
       </c>
       <c r="F85" t="str">
         <v>null</v>
@@ -3875,13 +3875,13 @@
         <v>null</v>
       </c>
       <c r="J85" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zn</v>
+        <v>null</v>
       </c>
       <c r="K85" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zn</v>
+        <v>null</v>
       </c>
       <c r="L85" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zk|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/zn</v>
+        <v>null</v>
       </c>
       <c r="M85" t="str">
         <v>null</v>
@@ -3895,13 +3895,13 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C86" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sl|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/st</v>
       </c>
       <c r="D86" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sl|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/st</v>
       </c>
       <c r="E86" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sl|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/st</v>
       </c>
       <c r="F86" t="str">
         <v>null</v>
@@ -3916,13 +3916,13 @@
         <v>null</v>
       </c>
       <c r="J86" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sl|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/st</v>
+        <v>null</v>
       </c>
       <c r="K86" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sl|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/st</v>
+        <v>null</v>
       </c>
       <c r="L86" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/sl|https://data.bodemenondergrond.vlaanderen.be/id/concept/secundairekenmerktype/st</v>
+        <v>null</v>
       </c>
       <c r="M86" t="str">
         <v>null</v>
